--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2464297.937656178</v>
+        <v>-2464952.910506302</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5396956.664121824</v>
+        <v>5396956.664121817</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>47.09653589840237</v>
       </c>
       <c r="C11" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.99659172979391</v>
+        <v>20.99659172979374</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>43.5277613929066</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="X11" t="n">
-        <v>3.568774505498482</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8.357505973423077</v>
+        <v>8.357505973422906</v>
       </c>
       <c r="U12" t="n">
-        <v>30.60508741747118</v>
+        <v>30.60508741747101</v>
       </c>
       <c r="V12" t="n">
-        <v>34.02578013387171</v>
+        <v>34.02578013387154</v>
       </c>
       <c r="W12" t="n">
-        <v>60.08144279548105</v>
+        <v>60.08144279548088</v>
       </c>
       <c r="X12" t="n">
-        <v>10.68977365794007</v>
+        <v>10.6897736579399</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.76114535249508</v>
+        <v>16.76114535249491</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>28.85014794179605</v>
+        <v>28.85014794179588</v>
       </c>
       <c r="T13" t="n">
-        <v>17.14705869532279</v>
+        <v>17.14705869532262</v>
       </c>
       <c r="U13" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="V13" t="n">
-        <v>38.48587440291936</v>
+        <v>38.48587440291919</v>
       </c>
       <c r="W13" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="X13" t="n">
-        <v>15.29631462671199</v>
+        <v>15.29631462671182</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.51813203263788</v>
+        <v>10.51813203263771</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>77.30827387397663</v>
+        <v>65.0145717046332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>20.99659172979396</v>
+        <v>20.99659172979374</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>15.86247667484217</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>43.52776139290643</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.09653589840456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>8.357505973423134</v>
+        <v>8.357505973422906</v>
       </c>
       <c r="U15" t="n">
-        <v>30.60508741747124</v>
+        <v>30.60508741747101</v>
       </c>
       <c r="V15" t="n">
-        <v>34.02578013387176</v>
+        <v>34.02578013387154</v>
       </c>
       <c r="W15" t="n">
-        <v>60.08144279548111</v>
+        <v>60.08144279548088</v>
       </c>
       <c r="X15" t="n">
-        <v>10.68977365794012</v>
+        <v>10.6897736579399</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.76114535249513</v>
+        <v>16.76114535249491</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>28.85014794179611</v>
+        <v>28.85014794179588</v>
       </c>
       <c r="T16" t="n">
-        <v>17.14705869532285</v>
+        <v>17.14705869532262</v>
       </c>
       <c r="U16" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="V16" t="n">
-        <v>38.48587440291942</v>
+        <v>38.48587440291919</v>
       </c>
       <c r="W16" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="X16" t="n">
-        <v>15.29631462671205</v>
+        <v>15.29631462671182</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.51813203263794</v>
+        <v>10.51813203263771</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G17" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="H17" t="n">
         <v>9.171107687222264</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88625046893924</v>
+        <v>21.88625046893971</v>
       </c>
       <c r="Y17" t="n">
         <v>44.389103592683</v>
@@ -2093,10 +2093,10 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G20" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="H20" t="n">
-        <v>9.171107687222188</v>
+        <v>9.171107687222275</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>149.0087664723158</v>
+        <v>149.0087664723157</v>
       </c>
       <c r="C26" t="n">
         <v>125.1270234756612</v>
@@ -2561,7 +2561,7 @@
         <v>112.6936857367097</v>
       </c>
       <c r="E26" t="n">
-        <v>146.4004381561186</v>
+        <v>146.4004381561185</v>
       </c>
       <c r="F26" t="n">
         <v>178.1207757344959</v>
@@ -2570,10 +2570,10 @@
         <v>193.7642075794733</v>
       </c>
       <c r="H26" t="n">
-        <v>121.9890976074716</v>
+        <v>121.9890976074715</v>
       </c>
       <c r="I26" t="n">
-        <v>16.10511011756188</v>
+        <v>16.10511011756176</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.541258605806876</v>
+        <v>2.541258605806789</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>25.07242826891957</v>
+        <v>25.07242826891951</v>
       </c>
       <c r="V26" t="n">
-        <v>95.80130970363444</v>
+        <v>95.80130970363439</v>
       </c>
       <c r="W26" t="n">
         <v>112.8179899202493</v>
       </c>
       <c r="X26" t="n">
-        <v>134.7042403891886</v>
+        <v>134.7042403891885</v>
       </c>
       <c r="Y26" t="n">
         <v>157.2070935129323</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>12.14975429348415</v>
+        <v>12.1497542934841</v>
       </c>
       <c r="V27" t="n">
-        <v>15.57044700988467</v>
+        <v>15.57044700988462</v>
       </c>
       <c r="W27" t="n">
-        <v>41.62610967149402</v>
+        <v>41.62610967149396</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39481481780902</v>
+        <v>10.39481481780895</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>63.57819337402502</v>
+        <v>63.57819337402496</v>
       </c>
       <c r="V28" t="n">
-        <v>20.03054127893233</v>
+        <v>20.03054127893228</v>
       </c>
       <c r="W28" t="n">
-        <v>65.23223318381775</v>
+        <v>65.2322331838177</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>121.9890976074715</v>
       </c>
       <c r="I29" t="n">
-        <v>16.10511011756176</v>
+        <v>16.10511011756182</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.541258605806789</v>
+        <v>2.541258605806819</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>10.39481481780895</v>
+        <v>10.39481481780896</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>149.0087664723158</v>
       </c>
       <c r="C32" t="n">
-        <v>125.1270234756613</v>
+        <v>125.1270234756612</v>
       </c>
       <c r="D32" t="n">
         <v>112.6936857367097</v>
@@ -3047,7 +3047,7 @@
         <v>121.9890976074716</v>
       </c>
       <c r="I32" t="n">
-        <v>16.10511011756185</v>
+        <v>16.10511011756188</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.541258605806874</v>
+        <v>2.541258605806888</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>25.07242826891959</v>
+        <v>25.07242826891957</v>
       </c>
       <c r="V32" t="n">
-        <v>95.80130970363447</v>
+        <v>95.80130970363444</v>
       </c>
       <c r="W32" t="n">
         <v>112.8179899202493</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>12.14975429348418</v>
+        <v>12.14975429348415</v>
       </c>
       <c r="V33" t="n">
-        <v>15.5704470098847</v>
+        <v>15.57044700988467</v>
       </c>
       <c r="W33" t="n">
-        <v>41.62610967149405</v>
+        <v>41.62610967149402</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>10.39481481780904</v>
+        <v>10.39481481780902</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.57819337402505</v>
+        <v>63.57819337402502</v>
       </c>
       <c r="V34" t="n">
-        <v>20.03054127893236</v>
+        <v>20.03054127893233</v>
       </c>
       <c r="W34" t="n">
-        <v>65.23223318381778</v>
+        <v>65.23223318381775</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.3493632112684</v>
+        <v>125.3493632112689</v>
       </c>
       <c r="C35" t="n">
-        <v>101.4676202146139</v>
+        <v>101.4676202146144</v>
       </c>
       <c r="D35" t="n">
-        <v>89.03428247566239</v>
+        <v>89.03428247566285</v>
       </c>
       <c r="E35" t="n">
-        <v>122.7410348950713</v>
+        <v>122.7410348950717</v>
       </c>
       <c r="F35" t="n">
-        <v>154.4613724734486</v>
+        <v>154.461372473449</v>
       </c>
       <c r="G35" t="n">
-        <v>170.104804318426</v>
+        <v>170.1048043184265</v>
       </c>
       <c r="H35" t="n">
-        <v>98.32969434642428</v>
+        <v>98.32969434642473</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.41302500787225</v>
+        <v>1.413025007872704</v>
       </c>
       <c r="V35" t="n">
-        <v>72.14190644258713</v>
+        <v>72.14190644258758</v>
       </c>
       <c r="W35" t="n">
-        <v>89.158586659202</v>
+        <v>89.15858665920246</v>
       </c>
       <c r="X35" t="n">
-        <v>111.0448371281412</v>
+        <v>111.0448371281417</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.547690251885</v>
+        <v>133.5476902518855</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>17.9667064104467</v>
+        <v>17.96670641044716</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.9187901129777</v>
+        <v>39.91879011297816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.57282992277044</v>
+        <v>41.57282992277089</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.3493632112684</v>
+        <v>125.3493632112689</v>
       </c>
       <c r="C38" t="n">
-        <v>101.4676202146139</v>
+        <v>101.4676202146144</v>
       </c>
       <c r="D38" t="n">
-        <v>89.03428247566239</v>
+        <v>89.03428247566285</v>
       </c>
       <c r="E38" t="n">
-        <v>122.7410348950713</v>
+        <v>122.7410348950717</v>
       </c>
       <c r="F38" t="n">
-        <v>154.4613724734486</v>
+        <v>154.461372473449</v>
       </c>
       <c r="G38" t="n">
-        <v>170.104804318426</v>
+        <v>170.1048043184265</v>
       </c>
       <c r="H38" t="n">
-        <v>98.32969434642428</v>
+        <v>98.32969434642473</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.41302500787225</v>
+        <v>1.413025007872704</v>
       </c>
       <c r="V38" t="n">
-        <v>72.14190644258713</v>
+        <v>72.14190644258758</v>
       </c>
       <c r="W38" t="n">
-        <v>89.158586659202</v>
+        <v>89.15858665920246</v>
       </c>
       <c r="X38" t="n">
-        <v>111.0448371281412</v>
+        <v>111.0448371281417</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.547690251885</v>
+        <v>133.5476902518855</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>17.9667064104467</v>
+        <v>17.96670641044716</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>39.9187901129777</v>
+        <v>39.91879011297816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.57282992277044</v>
+        <v>41.57282992277089</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>125.3493632112684</v>
+        <v>125.3493632112689</v>
       </c>
       <c r="C41" t="n">
-        <v>101.4676202146139</v>
+        <v>101.4676202146144</v>
       </c>
       <c r="D41" t="n">
-        <v>89.03428247566239</v>
+        <v>89.03428247566285</v>
       </c>
       <c r="E41" t="n">
-        <v>122.7410348950713</v>
+        <v>122.7410348950717</v>
       </c>
       <c r="F41" t="n">
-        <v>154.4613724734486</v>
+        <v>154.461372473449</v>
       </c>
       <c r="G41" t="n">
-        <v>170.104804318426</v>
+        <v>170.1048043184264</v>
       </c>
       <c r="H41" t="n">
-        <v>98.32969434642428</v>
+        <v>98.32969434642473</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.41302500787225</v>
+        <v>1.413025007872704</v>
       </c>
       <c r="V41" t="n">
-        <v>72.14190644258713</v>
+        <v>72.14190644258758</v>
       </c>
       <c r="W41" t="n">
-        <v>89.158586659202</v>
+        <v>89.15858665920246</v>
       </c>
       <c r="X41" t="n">
-        <v>111.0448371281412</v>
+        <v>111.0448371281417</v>
       </c>
       <c r="Y41" t="n">
-        <v>133.547690251885</v>
+        <v>133.5476902518855</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>17.9667064104467</v>
+        <v>17.96670641044716</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.9187901129777</v>
+        <v>39.91879011297816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>41.57282992277044</v>
+        <v>41.57282992277089</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>125.3493632112684</v>
+        <v>125.3493632112689</v>
       </c>
       <c r="C44" t="n">
-        <v>101.4676202146139</v>
+        <v>101.4676202146144</v>
       </c>
       <c r="D44" t="n">
-        <v>89.03428247566239</v>
+        <v>89.03428247566285</v>
       </c>
       <c r="E44" t="n">
-        <v>122.7410348950713</v>
+        <v>122.7410348950717</v>
       </c>
       <c r="F44" t="n">
-        <v>154.4613724734486</v>
+        <v>154.461372473449</v>
       </c>
       <c r="G44" t="n">
-        <v>170.104804318426</v>
+        <v>170.1048043184264</v>
       </c>
       <c r="H44" t="n">
-        <v>98.32969434642428</v>
+        <v>98.32969434642473</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.413025007872249</v>
+        <v>1.413025007872704</v>
       </c>
       <c r="V44" t="n">
-        <v>72.14190644258713</v>
+        <v>72.14190644258758</v>
       </c>
       <c r="W44" t="n">
-        <v>89.158586659202</v>
+        <v>89.15858665920246</v>
       </c>
       <c r="X44" t="n">
-        <v>111.0448371281412</v>
+        <v>111.0448371281417</v>
       </c>
       <c r="Y44" t="n">
-        <v>133.547690251885</v>
+        <v>133.5476902518855</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>17.9667064104467</v>
+        <v>17.96670641044716</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.9187901129777</v>
+        <v>39.91879011297816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>41.57282992277044</v>
+        <v>41.57282992277089</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.3629929684568</v>
+        <v>84.27382743918599</v>
       </c>
       <c r="C11" t="n">
-        <v>84.27382743918746</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="D11" t="n">
-        <v>84.27382743918746</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="E11" t="n">
-        <v>84.27382743918746</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="F11" t="n">
-        <v>84.27382743918746</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="G11" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="H11" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="I11" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="J11" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="K11" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="L11" t="n">
-        <v>82.71985304515499</v>
+        <v>82.71985304515354</v>
       </c>
       <c r="M11" t="n">
-        <v>159.2550441803918</v>
+        <v>144.8189101621795</v>
       </c>
       <c r="N11" t="n">
-        <v>232.6979043606697</v>
+        <v>221.354101297415</v>
       </c>
       <c r="O11" t="n">
-        <v>309.2330954959065</v>
+        <v>297.8892924326506</v>
       </c>
       <c r="P11" t="n">
-        <v>309.2330954959065</v>
+        <v>297.8892924326506</v>
       </c>
       <c r="Q11" t="n">
-        <v>309.2330954959065</v>
+        <v>297.8892924326506</v>
       </c>
       <c r="R11" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959011</v>
       </c>
       <c r="S11" t="n">
-        <v>288.0244169809632</v>
+        <v>288.0244169809579</v>
       </c>
       <c r="T11" t="n">
-        <v>288.0244169809632</v>
+        <v>288.0244169809579</v>
       </c>
       <c r="U11" t="n">
-        <v>244.0569812305524</v>
+        <v>288.0244169809579</v>
       </c>
       <c r="V11" t="n">
-        <v>165.9678157012831</v>
+        <v>209.93525145169</v>
       </c>
       <c r="W11" t="n">
-        <v>165.9678157012831</v>
+        <v>131.846085922422</v>
       </c>
       <c r="X11" t="n">
-        <v>162.3629929684568</v>
+        <v>131.846085922422</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.3629929684568</v>
+        <v>131.846085922422</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0986012745111</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="D12" t="n">
-        <v>25.0986012745111</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0986012745111</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="F12" t="n">
-        <v>25.0986012745111</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="G12" t="n">
-        <v>25.0986012745111</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="H12" t="n">
-        <v>25.0986012745111</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="I12" t="n">
-        <v>25.0986012745111</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="J12" t="n">
-        <v>96.58954323015948</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="K12" t="n">
-        <v>96.58954323015948</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="L12" t="n">
-        <v>96.58954323015948</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="M12" t="n">
-        <v>96.58954323015948</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="N12" t="n">
-        <v>96.58954323015948</v>
+        <v>53.50636655490437</v>
       </c>
       <c r="O12" t="n">
-        <v>126.4938485838995</v>
+        <v>130.0415576901399</v>
       </c>
       <c r="P12" t="n">
-        <v>126.4938485838995</v>
+        <v>130.0415576901399</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.4938485838995</v>
+        <v>168.326818809596</v>
       </c>
       <c r="R12" t="n">
-        <v>168.3268188095971</v>
+        <v>168.326818809596</v>
       </c>
       <c r="S12" t="n">
-        <v>168.3268188095971</v>
+        <v>168.326818809596</v>
       </c>
       <c r="T12" t="n">
-        <v>159.8848935839172</v>
+        <v>159.8848935839163</v>
       </c>
       <c r="U12" t="n">
-        <v>128.9706638692999</v>
+        <v>128.9706638692991</v>
       </c>
       <c r="V12" t="n">
-        <v>94.60118898660116</v>
+        <v>94.60118898660053</v>
       </c>
       <c r="W12" t="n">
-        <v>33.91286293055969</v>
+        <v>33.91286293055924</v>
       </c>
       <c r="X12" t="n">
-        <v>23.11511176092326</v>
+        <v>23.11511176092298</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="C13" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="D13" t="n">
-        <v>13.6576253813938</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="E13" t="n">
-        <v>13.6576253813938</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="F13" t="n">
-        <v>80.67692135884684</v>
+        <v>73.20395788737123</v>
       </c>
       <c r="G13" t="n">
-        <v>80.67692135884684</v>
+        <v>73.20395788737123</v>
       </c>
       <c r="H13" t="n">
-        <v>80.67692135884684</v>
+        <v>113.576912700611</v>
       </c>
       <c r="I13" t="n">
-        <v>80.67692135884684</v>
+        <v>113.576912700611</v>
       </c>
       <c r="J13" t="n">
-        <v>144.4767460949094</v>
+        <v>113.576912700611</v>
       </c>
       <c r="K13" t="n">
-        <v>213.9631013882413</v>
+        <v>183.063267993943</v>
       </c>
       <c r="L13" t="n">
-        <v>213.9631013882413</v>
+        <v>183.063267993943</v>
       </c>
       <c r="M13" t="n">
-        <v>213.9631013882413</v>
+        <v>183.063267993943</v>
       </c>
       <c r="N13" t="n">
-        <v>213.9631013882413</v>
+        <v>183.063267993943</v>
       </c>
       <c r="O13" t="n">
-        <v>213.9631013882413</v>
+        <v>237.2490107755644</v>
       </c>
       <c r="P13" t="n">
-        <v>273.7746371092528</v>
+        <v>237.2490107755644</v>
       </c>
       <c r="Q13" t="n">
-        <v>273.7746371092528</v>
+        <v>273.7746371092492</v>
       </c>
       <c r="R13" t="n">
-        <v>273.7746371092528</v>
+        <v>273.7746371092492</v>
       </c>
       <c r="S13" t="n">
-        <v>244.633073531681</v>
+        <v>244.6330735316776</v>
       </c>
       <c r="T13" t="n">
-        <v>227.3128122232742</v>
+        <v>227.3128122232709</v>
       </c>
       <c r="U13" t="n">
-        <v>149.2236466940049</v>
+        <v>149.2236466940029</v>
       </c>
       <c r="V13" t="n">
-        <v>110.3490260849954</v>
+        <v>110.3490260849936</v>
       </c>
       <c r="W13" t="n">
-        <v>32.25986055572608</v>
+        <v>32.25986055572563</v>
       </c>
       <c r="X13" t="n">
-        <v>16.80903770046145</v>
+        <v>16.80903770046116</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240.4521584977261</v>
+        <v>71.85594646005258</v>
       </c>
       <c r="C14" t="n">
-        <v>162.3629929684568</v>
+        <v>71.85594646005258</v>
       </c>
       <c r="D14" t="n">
-        <v>84.27382743918746</v>
+        <v>71.85594646005258</v>
       </c>
       <c r="E14" t="n">
-        <v>84.27382743918746</v>
+        <v>71.85594646005258</v>
       </c>
       <c r="F14" t="n">
-        <v>84.27382743918746</v>
+        <v>71.85594646005258</v>
       </c>
       <c r="G14" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="H14" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I14" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="J14" t="n">
-        <v>6.18466190991813</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="K14" t="n">
-        <v>6.18466190991813</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="L14" t="n">
-        <v>52.20114053753349</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="M14" t="n">
-        <v>128.7363316727703</v>
+        <v>201.2330288521409</v>
       </c>
       <c r="N14" t="n">
-        <v>199.2293086088732</v>
+        <v>275.7644997441107</v>
       </c>
       <c r="O14" t="n">
-        <v>232.6979043606697</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="P14" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="Q14" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="R14" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="S14" t="n">
-        <v>288.024416980963</v>
+        <v>288.024416980964</v>
       </c>
       <c r="T14" t="n">
-        <v>288.024416980963</v>
+        <v>272.0017132690022</v>
       </c>
       <c r="U14" t="n">
-        <v>288.024416980963</v>
+        <v>228.0342775185916</v>
       </c>
       <c r="V14" t="n">
-        <v>288.024416980963</v>
+        <v>149.9451119893221</v>
       </c>
       <c r="W14" t="n">
-        <v>288.024416980963</v>
+        <v>71.85594646005258</v>
       </c>
       <c r="X14" t="n">
-        <v>288.024416980963</v>
+        <v>71.85594646005258</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.4521584977261</v>
+        <v>71.85594646005258</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="C15" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="D15" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="E15" t="n">
-        <v>40.63227516223162</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="F15" t="n">
-        <v>87.95397980721773</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="G15" t="n">
-        <v>145.2513426016542</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="H15" t="n">
-        <v>145.2513426016542</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I15" t="n">
-        <v>145.2513426016542</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="J15" t="n">
-        <v>145.2513426016542</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="K15" t="n">
-        <v>145.2513426016542</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="L15" t="n">
-        <v>145.2513426016542</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="M15" t="n">
-        <v>168.3268188095975</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="N15" t="n">
-        <v>168.3268188095975</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="O15" t="n">
-        <v>168.3268188095975</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="P15" t="n">
-        <v>168.3268188095975</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="Q15" t="n">
-        <v>168.3268188095975</v>
+        <v>168.3268188095961</v>
       </c>
       <c r="R15" t="n">
-        <v>168.3268188095975</v>
+        <v>168.3268188095961</v>
       </c>
       <c r="S15" t="n">
-        <v>168.3268188095975</v>
+        <v>168.3268188095961</v>
       </c>
       <c r="T15" t="n">
-        <v>159.8848935839175</v>
+        <v>159.8848935839164</v>
       </c>
       <c r="U15" t="n">
-        <v>128.9706638693001</v>
+        <v>128.9706638692992</v>
       </c>
       <c r="V15" t="n">
-        <v>94.60118898660133</v>
+        <v>94.60118898660065</v>
       </c>
       <c r="W15" t="n">
-        <v>33.9128629305598</v>
+        <v>33.91286293055936</v>
       </c>
       <c r="X15" t="n">
-        <v>23.11511176092332</v>
+        <v>23.1151117609231</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.9008198253149</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="C16" t="n">
-        <v>34.9008198253149</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="D16" t="n">
-        <v>95.72690545082648</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="E16" t="n">
-        <v>95.72690545082648</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="F16" t="n">
-        <v>95.72690545082648</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="G16" t="n">
-        <v>133.2680455024285</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="H16" t="n">
-        <v>133.2680455024285</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I16" t="n">
-        <v>174.5603065514015</v>
+        <v>47.47692295889136</v>
       </c>
       <c r="J16" t="n">
-        <v>174.5603065514015</v>
+        <v>47.47692295889136</v>
       </c>
       <c r="K16" t="n">
-        <v>174.5603065514015</v>
+        <v>101.2187603663317</v>
       </c>
       <c r="L16" t="n">
-        <v>174.5603065514015</v>
+        <v>169.4169368780117</v>
       </c>
       <c r="M16" t="n">
-        <v>239.3211563045255</v>
+        <v>234.1777866311359</v>
       </c>
       <c r="N16" t="n">
-        <v>239.3211563045255</v>
+        <v>234.1777866311359</v>
       </c>
       <c r="O16" t="n">
-        <v>270.7034129648217</v>
+        <v>234.1777866311359</v>
       </c>
       <c r="P16" t="n">
-        <v>270.7034129648217</v>
+        <v>234.1777866311359</v>
       </c>
       <c r="Q16" t="n">
-        <v>270.7034129648217</v>
+        <v>270.7034129648206</v>
       </c>
       <c r="R16" t="n">
-        <v>273.7746371092531</v>
+        <v>273.7746371092523</v>
       </c>
       <c r="S16" t="n">
-        <v>244.6330735316813</v>
+        <v>244.6330735316807</v>
       </c>
       <c r="T16" t="n">
-        <v>227.3128122232744</v>
+        <v>227.312812223274</v>
       </c>
       <c r="U16" t="n">
-        <v>149.2236466940051</v>
+        <v>149.2236466940045</v>
       </c>
       <c r="V16" t="n">
-        <v>110.3490260849955</v>
+        <v>110.3490260849952</v>
       </c>
       <c r="W16" t="n">
-        <v>32.2598605557262</v>
+        <v>32.25986055572574</v>
       </c>
       <c r="X16" t="n">
-        <v>16.8090377004615</v>
+        <v>16.80903770046128</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205.7319534618775</v>
+        <v>205.7319534618777</v>
       </c>
       <c r="C17" t="n">
-        <v>193.2985862341887</v>
+        <v>193.2985862341888</v>
       </c>
       <c r="D17" t="n">
-        <v>193.4216473758929</v>
+        <v>193.421647375893</v>
       </c>
       <c r="E17" t="n">
         <v>159.4999824911765</v>
       </c>
       <c r="F17" t="n">
-        <v>93.53757257779597</v>
+        <v>93.53757257779608</v>
       </c>
       <c r="G17" t="n">
-        <v>15.44840704852648</v>
+        <v>15.44840704852649</v>
       </c>
       <c r="H17" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I17" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="J17" t="n">
-        <v>82.71985304515499</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="K17" t="n">
-        <v>82.71985304515499</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="L17" t="n">
-        <v>82.71985304515499</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="M17" t="n">
-        <v>159.2550441803918</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="N17" t="n">
-        <v>159.2550441803918</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="O17" t="n">
-        <v>159.2550441803918</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="P17" t="n">
-        <v>159.2550441803918</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="Q17" t="n">
-        <v>235.7902353156287</v>
+        <v>139.3161998109844</v>
       </c>
       <c r="R17" t="n">
-        <v>235.7902353156287</v>
+        <v>139.3161998109844</v>
       </c>
       <c r="S17" t="n">
-        <v>309.2330954959065</v>
+        <v>215.8513909462214</v>
       </c>
       <c r="T17" t="n">
-        <v>309.2330954959065</v>
+        <v>215.8513909462214</v>
       </c>
       <c r="U17" t="n">
-        <v>309.2330954959065</v>
+        <v>292.3865820814584</v>
       </c>
       <c r="V17" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="W17" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="X17" t="n">
-        <v>287.1257717899073</v>
+        <v>287.1257717899074</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.2882934134598</v>
+        <v>242.2882934134599</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="C18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="D18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="E18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="F18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="G18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="H18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="J18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="K18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="L18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="M18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="N18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="O18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="P18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="R18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="S18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="T18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="U18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="V18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="W18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="X18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="C19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="D19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="E19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="F19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="G19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="H19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="J19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="K19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="L19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="M19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="N19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="O19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="P19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="R19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="S19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="T19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="U19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="V19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="W19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="X19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>205.7319534618775</v>
+        <v>205.7319534618781</v>
       </c>
       <c r="C20" t="n">
-        <v>193.2985862341887</v>
+        <v>193.2985862341893</v>
       </c>
       <c r="D20" t="n">
-        <v>193.4216473758929</v>
+        <v>193.4216473758934</v>
       </c>
       <c r="E20" t="n">
-        <v>159.4999824911764</v>
+        <v>159.499982491177</v>
       </c>
       <c r="F20" t="n">
-        <v>93.53757257779597</v>
+        <v>93.53757257779654</v>
       </c>
       <c r="G20" t="n">
-        <v>15.4484070485264</v>
+        <v>15.4484070485265</v>
       </c>
       <c r="H20" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I20" t="n">
-        <v>62.78100867574722</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="J20" t="n">
-        <v>139.3161998109841</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="K20" t="n">
-        <v>139.3161998109841</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="L20" t="n">
-        <v>139.3161998109841</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="M20" t="n">
-        <v>139.3161998109841</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="N20" t="n">
-        <v>139.3161998109841</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="O20" t="n">
-        <v>139.3161998109841</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="P20" t="n">
-        <v>139.3161998109841</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="Q20" t="n">
-        <v>139.3161998109841</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="R20" t="n">
-        <v>139.3161998109841</v>
+        <v>215.8513909462214</v>
       </c>
       <c r="S20" t="n">
-        <v>215.8513909462209</v>
+        <v>215.8513909462214</v>
       </c>
       <c r="T20" t="n">
-        <v>215.8513909462209</v>
+        <v>215.8513909462214</v>
       </c>
       <c r="U20" t="n">
-        <v>292.3865820814578</v>
+        <v>292.3865820814584</v>
       </c>
       <c r="V20" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="W20" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="X20" t="n">
-        <v>287.1257717899073</v>
+        <v>287.1257717899079</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.2882934134598</v>
+        <v>242.2882934134604</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="C21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="D21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="E21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="F21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="G21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="H21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="J21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="K21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="L21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="M21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="N21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="O21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="P21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="R21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="S21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="T21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="U21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="V21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="W21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="X21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="C22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="D22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="E22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="F22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="G22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="H22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="I22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="J22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="K22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="L22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="M22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="N22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="O22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="P22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="R22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="S22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="T22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="U22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="V22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="W22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="X22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.18466190991813</v>
+        <v>6.184661909918143</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>193.2985862341886</v>
       </c>
       <c r="D23" t="n">
-        <v>193.421647375893</v>
+        <v>193.4216473758929</v>
       </c>
       <c r="E23" t="n">
         <v>159.4999824911765</v>
       </c>
       <c r="F23" t="n">
-        <v>93.53757257779625</v>
+        <v>93.53757257779608</v>
       </c>
       <c r="G23" t="n">
         <v>15.44840704852649</v>
@@ -5999,25 +5999,25 @@
         <v>82.71985304515499</v>
       </c>
       <c r="N23" t="n">
-        <v>159.2550441803918</v>
+        <v>82.71985304515499</v>
       </c>
       <c r="O23" t="n">
-        <v>159.2550441803918</v>
+        <v>82.71985304515499</v>
       </c>
       <c r="P23" t="n">
-        <v>235.7902353156287</v>
+        <v>82.71985304515499</v>
       </c>
       <c r="Q23" t="n">
-        <v>235.7902353156287</v>
+        <v>82.71985304515499</v>
       </c>
       <c r="R23" t="n">
-        <v>235.7902353156287</v>
+        <v>82.71985304515499</v>
       </c>
       <c r="S23" t="n">
-        <v>309.2330954959065</v>
+        <v>156.1627132254328</v>
       </c>
       <c r="T23" t="n">
-        <v>309.2330954959065</v>
+        <v>232.6979043606697</v>
       </c>
       <c r="U23" t="n">
         <v>309.2330954959065</v>
@@ -6026,7 +6026,7 @@
         <v>309.2330954959065</v>
       </c>
       <c r="W23" t="n">
-        <v>309.2330954959065</v>
+        <v>309.2330954959066</v>
       </c>
       <c r="X23" t="n">
         <v>287.1257717899073</v>
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>935.5726396339277</v>
+        <v>935.5726396339276</v>
       </c>
       <c r="C26" t="n">
         <v>809.1817068302294</v>
       </c>
       <c r="D26" t="n">
-        <v>695.3497010355733</v>
+        <v>695.3497010355729</v>
       </c>
       <c r="E26" t="n">
-        <v>547.4704705748475</v>
+        <v>547.4704705748471</v>
       </c>
       <c r="F26" t="n">
-        <v>367.5504950854576</v>
+        <v>367.5504950854573</v>
       </c>
       <c r="G26" t="n">
-        <v>171.8290732880098</v>
+        <v>171.8290732880096</v>
       </c>
       <c r="H26" t="n">
-        <v>48.60776257339236</v>
+        <v>48.60776257339225</v>
       </c>
       <c r="I26" t="n">
         <v>32.33997457585512</v>
       </c>
       <c r="J26" t="n">
-        <v>178.775032321197</v>
+        <v>178.7750323211972</v>
       </c>
       <c r="K26" t="n">
-        <v>394.375035323405</v>
+        <v>394.3750353234054</v>
       </c>
       <c r="L26" t="n">
-        <v>663.2192031174827</v>
+        <v>663.2192031174834</v>
       </c>
       <c r="M26" t="n">
-        <v>856.0984951141778</v>
+        <v>966.125050867885</v>
       </c>
       <c r="N26" t="n">
-        <v>1153.45765517261</v>
+        <v>1263.484210926317</v>
       </c>
       <c r="O26" t="n">
-        <v>1409.753940090869</v>
+        <v>1380.139357234871</v>
       </c>
       <c r="P26" t="n">
-        <v>1616.998728792756</v>
+        <v>1587.384145936758</v>
       </c>
       <c r="Q26" t="n">
-        <v>1616.998728792756</v>
+        <v>1587.384145936758</v>
       </c>
       <c r="R26" t="n">
         <v>1616.998728792756</v>
@@ -6254,7 +6254,7 @@
         <v>1614.431800908102</v>
       </c>
       <c r="T26" t="n">
-        <v>1616.998728792755</v>
+        <v>1616.998728792756</v>
       </c>
       <c r="U26" t="n">
         <v>1591.673043672635</v>
@@ -6300,46 +6300,46 @@
         <v>32.33997457585512</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3867533383428</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3867533383428</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3867533383428</v>
+        <v>69.9176668356379</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3867533383428</v>
+        <v>69.9176668356379</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3867533383428</v>
+        <v>69.9176668356379</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3867533383428</v>
+        <v>69.9176668356379</v>
       </c>
       <c r="O27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="P27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="R27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="S27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="T27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="U27" t="n">
-        <v>90.11427425401541</v>
+        <v>90.1142742540153</v>
       </c>
       <c r="V27" t="n">
-        <v>74.38655000160665</v>
+        <v>74.38655000160659</v>
       </c>
       <c r="W27" t="n">
         <v>32.33997457585512</v>
@@ -6373,52 +6373,52 @@
         <v>32.33997457585512</v>
       </c>
       <c r="G28" t="n">
-        <v>88.15189442020433</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="H28" t="n">
-        <v>88.15189442020433</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="I28" t="n">
-        <v>88.15189442020433</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="J28" t="n">
-        <v>88.15189442020433</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="K28" t="n">
-        <v>88.15189442020433</v>
+        <v>188.5753706473558</v>
       </c>
       <c r="L28" t="n">
-        <v>88.15189442020433</v>
+        <v>188.5753706473558</v>
       </c>
       <c r="M28" t="n">
-        <v>88.15189442020433</v>
+        <v>188.5753706473558</v>
       </c>
       <c r="N28" t="n">
-        <v>88.15189442020433</v>
+        <v>193.1841994794752</v>
       </c>
       <c r="O28" t="n">
-        <v>193.1841994794755</v>
+        <v>193.1841994794752</v>
       </c>
       <c r="P28" t="n">
-        <v>193.1841994794755</v>
+        <v>193.1841994794752</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.1841994794755</v>
+        <v>193.1841994794752</v>
       </c>
       <c r="R28" t="n">
-        <v>193.1841994794755</v>
+        <v>193.1841994794752</v>
       </c>
       <c r="S28" t="n">
-        <v>182.6843865321936</v>
+        <v>182.6843865321935</v>
       </c>
       <c r="T28" t="n">
-        <v>182.6843865321936</v>
+        <v>182.6843865321935</v>
       </c>
       <c r="U28" t="n">
-        <v>118.4639891846936</v>
+        <v>118.4639891846935</v>
       </c>
       <c r="V28" t="n">
-        <v>98.23111920597407</v>
+        <v>98.23111920597401</v>
       </c>
       <c r="W28" t="n">
         <v>32.33997457585512</v>
@@ -6452,37 +6452,37 @@
         <v>367.5504950854576</v>
       </c>
       <c r="G29" t="n">
-        <v>171.8290732880096</v>
+        <v>171.8290732880098</v>
       </c>
       <c r="H29" t="n">
-        <v>48.60776257339225</v>
+        <v>48.60776257339231</v>
       </c>
       <c r="I29" t="n">
         <v>32.33997457585512</v>
       </c>
       <c r="J29" t="n">
-        <v>32.33997457585512</v>
+        <v>178.7750323211971</v>
       </c>
       <c r="K29" t="n">
-        <v>247.9399775780633</v>
+        <v>394.3750353234051</v>
       </c>
       <c r="L29" t="n">
-        <v>516.7841453721413</v>
+        <v>663.2192031174829</v>
       </c>
       <c r="M29" t="n">
-        <v>819.6899931225428</v>
+        <v>743.2973617014218</v>
       </c>
       <c r="N29" t="n">
-        <v>1117.049153180975</v>
+        <v>1040.656521759854</v>
       </c>
       <c r="O29" t="n">
-        <v>1373.345438099234</v>
+        <v>1246.608288730633</v>
       </c>
       <c r="P29" t="n">
-        <v>1580.590226801121</v>
+        <v>1453.85307743252</v>
       </c>
       <c r="Q29" t="n">
-        <v>1616.998728792756</v>
+        <v>1587.384145936758</v>
       </c>
       <c r="R29" t="n">
         <v>1616.998728792756</v>
@@ -6534,19 +6534,19 @@
         <v>32.33997457585512</v>
       </c>
       <c r="H30" t="n">
-        <v>69.63758671279024</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="I30" t="n">
-        <v>69.63758671279024</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="J30" t="n">
-        <v>69.63758671279024</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="K30" t="n">
-        <v>69.63758671279024</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="L30" t="n">
-        <v>69.63758671279024</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="M30" t="n">
         <v>102.3867533383427</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.19780365629083</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="C31" t="n">
-        <v>98.23288366050065</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="D31" t="n">
-        <v>98.23288366050065</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="E31" t="n">
-        <v>98.23288366050065</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="F31" t="n">
-        <v>183.5229594307009</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="G31" t="n">
-        <v>183.5229594307009</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="H31" t="n">
-        <v>183.5229594307009</v>
+        <v>90.98370918184193</v>
       </c>
       <c r="I31" t="n">
-        <v>183.5229594307009</v>
+        <v>90.98370918184193</v>
       </c>
       <c r="J31" t="n">
-        <v>183.5229594307009</v>
+        <v>90.98370918184193</v>
       </c>
       <c r="K31" t="n">
-        <v>193.1841994794752</v>
+        <v>90.98370918184193</v>
       </c>
       <c r="L31" t="n">
-        <v>193.1841994794752</v>
+        <v>90.98370918184193</v>
       </c>
       <c r="M31" t="n">
-        <v>193.1841994794752</v>
+        <v>90.98370918184193</v>
       </c>
       <c r="N31" t="n">
-        <v>193.1841994794752</v>
+        <v>90.98370918184193</v>
       </c>
       <c r="O31" t="n">
-        <v>193.1841994794752</v>
+        <v>90.98370918184193</v>
       </c>
       <c r="P31" t="n">
         <v>193.1841994794752</v>
@@ -6664,7 +6664,7 @@
         <v>32.33997457585512</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.19780365629083</v>
+        <v>32.33997457585512</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>935.5726396339271</v>
+        <v>935.5726396339275</v>
       </c>
       <c r="C32" t="n">
-        <v>809.1817068302289</v>
+        <v>809.1817068302292</v>
       </c>
       <c r="D32" t="n">
-        <v>695.3497010355726</v>
+        <v>695.3497010355728</v>
       </c>
       <c r="E32" t="n">
-        <v>547.4704705748468</v>
+        <v>547.470470574847</v>
       </c>
       <c r="F32" t="n">
-        <v>367.550495085457</v>
+        <v>367.5504950854572</v>
       </c>
       <c r="G32" t="n">
-        <v>171.82907328801</v>
+        <v>171.8290732880101</v>
       </c>
       <c r="H32" t="n">
-        <v>48.60776257339234</v>
+        <v>48.60776257339236</v>
       </c>
       <c r="I32" t="n">
         <v>32.33997457585512</v>
       </c>
       <c r="J32" t="n">
-        <v>178.7750323211971</v>
+        <v>178.775032321197</v>
       </c>
       <c r="K32" t="n">
-        <v>394.3750353234053</v>
+        <v>178.775032321197</v>
       </c>
       <c r="L32" t="n">
-        <v>663.2192031174832</v>
+        <v>390.0469960035407</v>
       </c>
       <c r="M32" t="n">
-        <v>743.2973617014222</v>
+        <v>692.9528437539419</v>
       </c>
       <c r="N32" t="n">
-        <v>1019.926586668371</v>
+        <v>990.3120038123741</v>
       </c>
       <c r="O32" t="n">
-        <v>1276.22287158663</v>
+        <v>1246.608288730633</v>
       </c>
       <c r="P32" t="n">
-        <v>1483.467660288517</v>
+        <v>1453.85307743252</v>
       </c>
       <c r="Q32" t="n">
-        <v>1616.998728792756</v>
+        <v>1587.384145936758</v>
       </c>
       <c r="R32" t="n">
         <v>1616.998728792756</v>
@@ -6737,7 +6737,7 @@
         <v>1494.904043971994</v>
       </c>
       <c r="W32" t="n">
-        <v>1380.946478395984</v>
+        <v>1380.946478395985</v>
       </c>
       <c r="X32" t="n">
         <v>1244.881589113976</v>
@@ -6786,34 +6786,34 @@
         <v>32.33997457585512</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3867533383429</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="N33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="O33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="P33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="R33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="S33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="T33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="U33" t="n">
-        <v>90.11427425401547</v>
+        <v>90.11427425401541</v>
       </c>
       <c r="V33" t="n">
-        <v>74.38655000160668</v>
+        <v>74.38655000160665</v>
       </c>
       <c r="W33" t="n">
         <v>32.33997457585512</v>
@@ -6847,52 +6847,52 @@
         <v>32.33997457585512</v>
       </c>
       <c r="G34" t="n">
-        <v>88.1518944202043</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="H34" t="n">
-        <v>88.1518944202043</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="I34" t="n">
-        <v>147.7149352619245</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="J34" t="n">
-        <v>147.7149352619245</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="K34" t="n">
-        <v>147.7149352619245</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="L34" t="n">
-        <v>171.8421955422969</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="M34" t="n">
-        <v>171.8421955422969</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8421955422969</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="O34" t="n">
-        <v>171.8421955422969</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="P34" t="n">
-        <v>171.8421955422969</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="Q34" t="n">
-        <v>171.8421955422969</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="R34" t="n">
-        <v>193.1841994794756</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="S34" t="n">
-        <v>182.6843865321937</v>
+        <v>182.6843865321936</v>
       </c>
       <c r="T34" t="n">
-        <v>182.6843865321937</v>
+        <v>182.6843865321936</v>
       </c>
       <c r="U34" t="n">
-        <v>118.4639891846937</v>
+        <v>118.4639891846936</v>
       </c>
       <c r="V34" t="n">
-        <v>98.2311192059741</v>
+        <v>98.23111920597407</v>
       </c>
       <c r="W34" t="n">
         <v>32.33997457585512</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>769.7298669322468</v>
+        <v>769.7298669322497</v>
       </c>
       <c r="C35" t="n">
-        <v>667.2373212609193</v>
+        <v>667.2373212609218</v>
       </c>
       <c r="D35" t="n">
-        <v>577.303702598634</v>
+        <v>577.3037025986361</v>
       </c>
       <c r="E35" t="n">
-        <v>453.3228592702792</v>
+        <v>453.3228592702808</v>
       </c>
       <c r="F35" t="n">
-        <v>297.3012709132604</v>
+        <v>297.3012709132615</v>
       </c>
       <c r="G35" t="n">
-        <v>125.4782362481837</v>
+        <v>125.4782362481843</v>
       </c>
       <c r="H35" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I35" t="n">
-        <v>33.63406287798763</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="J35" t="n">
-        <v>33.63406287798763</v>
+        <v>203.4919298517656</v>
       </c>
       <c r="K35" t="n">
-        <v>151.652061358586</v>
+        <v>442.51474208241</v>
       </c>
       <c r="L35" t="n">
-        <v>192.6682352945677</v>
+        <v>488.5312207100253</v>
       </c>
       <c r="M35" t="n">
-        <v>272.7463938785068</v>
+        <v>812.2032149509969</v>
       </c>
       <c r="N35" t="n">
-        <v>593.528363165376</v>
+        <v>890.5573350349507</v>
       </c>
       <c r="O35" t="n">
-        <v>873.247457312072</v>
+        <v>1170.276429181646</v>
       </c>
       <c r="P35" t="n">
-        <v>1103.915055242396</v>
+        <v>1187.081975966111</v>
       </c>
       <c r="Q35" t="n">
-        <v>1260.868932975071</v>
+        <v>1207.831540890643</v>
       </c>
       <c r="R35" t="n">
-        <v>1260.868932975071</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="S35" t="n">
-        <v>1281.775896183759</v>
+        <v>1281.775896183765</v>
       </c>
       <c r="T35" t="n">
-        <v>1307.765633296849</v>
+        <v>1307.765633296855</v>
       </c>
       <c r="U35" t="n">
-        <v>1306.338335309099</v>
+        <v>1306.338335309104</v>
       </c>
       <c r="V35" t="n">
-        <v>1233.467722740829</v>
+        <v>1233.467722740834</v>
       </c>
       <c r="W35" t="n">
-        <v>1143.408544297191</v>
+        <v>1143.408544297195</v>
       </c>
       <c r="X35" t="n">
-        <v>1031.242042147553</v>
+        <v>1031.242042147557</v>
       </c>
       <c r="Y35" t="n">
-        <v>896.3453853274674</v>
+        <v>896.3453853274708</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C36" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D36" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E36" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F36" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G36" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H36" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="J36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="K36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="L36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="M36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="N36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="O36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="P36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="R36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="S36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="T36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="U36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="V36" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="W36" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X36" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I37" t="n">
-        <v>95.33813782000799</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="K37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="L37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="M37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="N37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="O37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="P37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="R37" t="n">
-        <v>95.33813782000799</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="S37" t="n">
-        <v>108.4700803788139</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="T37" t="n">
-        <v>108.4700803788139</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="U37" t="n">
-        <v>68.14807016368491</v>
+        <v>68.14807016368547</v>
       </c>
       <c r="V37" t="n">
-        <v>68.14807016368491</v>
+        <v>68.14807016368547</v>
       </c>
       <c r="W37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>769.7298669322469</v>
+        <v>769.7298669322496</v>
       </c>
       <c r="C38" t="n">
-        <v>667.2373212609198</v>
+        <v>667.2373212609219</v>
       </c>
       <c r="D38" t="n">
-        <v>577.3037025986345</v>
+        <v>577.3037025986362</v>
       </c>
       <c r="E38" t="n">
-        <v>453.3228592702797</v>
+        <v>453.3228592702809</v>
       </c>
       <c r="F38" t="n">
-        <v>297.3012709132607</v>
+        <v>297.3012709132616</v>
       </c>
       <c r="G38" t="n">
-        <v>125.4782362481837</v>
+        <v>125.4782362481843</v>
       </c>
       <c r="H38" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I38" t="n">
-        <v>33.63406287798763</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="J38" t="n">
-        <v>203.4919298517665</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="K38" t="n">
-        <v>203.4919298517665</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="L38" t="n">
-        <v>495.7589068742814</v>
+        <v>299.2493380352252</v>
       </c>
       <c r="M38" t="n">
-        <v>819.4309011152516</v>
+        <v>622.9213322761966</v>
       </c>
       <c r="N38" t="n">
-        <v>859.6460714533447</v>
+        <v>663.1365026142892</v>
       </c>
       <c r="O38" t="n">
-        <v>893.1146672051414</v>
+        <v>873.2474573120792</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.036060834877</v>
+        <v>1103.915055242402</v>
       </c>
       <c r="Q38" t="n">
-        <v>1249.989938567552</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="R38" t="n">
-        <v>1260.868932975071</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="S38" t="n">
-        <v>1281.775896183759</v>
+        <v>1281.775896183765</v>
       </c>
       <c r="T38" t="n">
-        <v>1307.765633296849</v>
+        <v>1307.765633296854</v>
       </c>
       <c r="U38" t="n">
-        <v>1306.338335309099</v>
+        <v>1306.338335309104</v>
       </c>
       <c r="V38" t="n">
-        <v>1233.467722740829</v>
+        <v>1233.467722740834</v>
       </c>
       <c r="W38" t="n">
-        <v>1143.408544297191</v>
+        <v>1143.408544297195</v>
       </c>
       <c r="X38" t="n">
-        <v>1031.242042147553</v>
+        <v>1031.242042147557</v>
       </c>
       <c r="Y38" t="n">
-        <v>896.3453853274675</v>
+        <v>896.3453853274707</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="K39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="L39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="M39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="N39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="O39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="P39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="R39" t="n">
-        <v>26.15531266593698</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="S39" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="T39" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="U39" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="V39" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="W39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y39" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I40" t="n">
-        <v>30.25086502394529</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J40" t="n">
-        <v>30.25086502394529</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="K40" t="n">
-        <v>30.25086502394529</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="L40" t="n">
-        <v>30.25086502394529</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="M40" t="n">
-        <v>30.25086502394529</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="N40" t="n">
-        <v>30.25086502394529</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="O40" t="n">
-        <v>30.25086502394529</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="P40" t="n">
-        <v>30.25086502394529</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.4700803788139</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="R40" t="n">
-        <v>108.4700803788139</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="S40" t="n">
-        <v>108.4700803788139</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="T40" t="n">
-        <v>108.4700803788139</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="U40" t="n">
-        <v>68.14807016368491</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="V40" t="n">
-        <v>68.14807016368491</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="W40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>769.7298669322465</v>
+        <v>769.7298669322497</v>
       </c>
       <c r="C41" t="n">
-        <v>667.2373212609193</v>
+        <v>667.2373212609218</v>
       </c>
       <c r="D41" t="n">
-        <v>577.3037025986341</v>
+        <v>577.3037025986362</v>
       </c>
       <c r="E41" t="n">
-        <v>453.3228592702794</v>
+        <v>453.3228592702808</v>
       </c>
       <c r="F41" t="n">
-        <v>297.3012709132607</v>
+        <v>297.3012709132613</v>
       </c>
       <c r="G41" t="n">
-        <v>125.4782362481837</v>
+        <v>125.4782362481843</v>
       </c>
       <c r="H41" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I41" t="n">
-        <v>26.15531266593698</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="J41" t="n">
-        <v>196.0131796397159</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="K41" t="n">
-        <v>435.0359918703609</v>
+        <v>64.711110035978</v>
       </c>
       <c r="L41" t="n">
-        <v>459.3649465344707</v>
+        <v>168.8630031603487</v>
       </c>
       <c r="M41" t="n">
-        <v>783.0369407754408</v>
+        <v>492.5349974013202</v>
       </c>
       <c r="N41" t="n">
-        <v>813.3169666881811</v>
+        <v>813.3169666881888</v>
       </c>
       <c r="O41" t="n">
-        <v>1093.036060834877</v>
+        <v>1093.036060834884</v>
       </c>
       <c r="P41" t="n">
-        <v>1093.036060834877</v>
+        <v>1093.036060834884</v>
       </c>
       <c r="Q41" t="n">
-        <v>1249.989938567552</v>
+        <v>1249.989938567559</v>
       </c>
       <c r="R41" t="n">
-        <v>1260.868932975071</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="S41" t="n">
-        <v>1281.775896183759</v>
+        <v>1281.775896183765</v>
       </c>
       <c r="T41" t="n">
-        <v>1307.765633296849</v>
+        <v>1307.765633296854</v>
       </c>
       <c r="U41" t="n">
-        <v>1306.338335309099</v>
+        <v>1306.338335309104</v>
       </c>
       <c r="V41" t="n">
-        <v>1233.467722740829</v>
+        <v>1233.467722740834</v>
       </c>
       <c r="W41" t="n">
-        <v>1143.408544297191</v>
+        <v>1143.408544297195</v>
       </c>
       <c r="X41" t="n">
-        <v>1031.242042147553</v>
+        <v>1031.242042147557</v>
       </c>
       <c r="Y41" t="n">
-        <v>896.3453853274672</v>
+        <v>896.3453853274708</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C42" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D42" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E42" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F42" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G42" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H42" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I42" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J42" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="K42" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="L42" t="n">
-        <v>44.30350095931749</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="M42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="N42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="O42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="P42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="R42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="S42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="T42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="U42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="V42" t="n">
-        <v>44.30350095931749</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="W42" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X42" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y42" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C43" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D43" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E43" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F43" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G43" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H43" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I43" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="K43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="L43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="M43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="N43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="O43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="P43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="R43" t="n">
-        <v>83.75207946599946</v>
+        <v>95.33813782000945</v>
       </c>
       <c r="S43" t="n">
-        <v>83.75207946599946</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="T43" t="n">
-        <v>108.4700803788139</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="U43" t="n">
-        <v>68.14807016368491</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="V43" t="n">
-        <v>68.14807016368491</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="W43" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X43" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.15531266593698</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>769.7298669322466</v>
+        <v>769.7298669322494</v>
       </c>
       <c r="C44" t="n">
-        <v>667.2373212609195</v>
+        <v>667.2373212609218</v>
       </c>
       <c r="D44" t="n">
-        <v>577.3037025986341</v>
+        <v>577.3037025986359</v>
       </c>
       <c r="E44" t="n">
-        <v>453.3228592702791</v>
+        <v>453.3228592702806</v>
       </c>
       <c r="F44" t="n">
-        <v>297.3012709132603</v>
+        <v>297.3012709132613</v>
       </c>
       <c r="G44" t="n">
-        <v>125.4782362481837</v>
+        <v>125.4782362481843</v>
       </c>
       <c r="H44" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I44" t="n">
-        <v>33.63406287798762</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="J44" t="n">
-        <v>95.01306928657772</v>
+        <v>203.4919298517656</v>
       </c>
       <c r="K44" t="n">
-        <v>95.01306928657772</v>
+        <v>442.51474208241</v>
       </c>
       <c r="L44" t="n">
-        <v>119.3420239506876</v>
+        <v>592.5682521571048</v>
       </c>
       <c r="M44" t="n">
-        <v>443.0140181916576</v>
+        <v>592.5682521571048</v>
       </c>
       <c r="N44" t="n">
-        <v>763.795987478527</v>
+        <v>632.7834224951973</v>
       </c>
       <c r="O44" t="n">
-        <v>1043.515081625223</v>
+        <v>894.1544205207667</v>
       </c>
       <c r="P44" t="n">
-        <v>1207.831540890636</v>
+        <v>1124.82201845109</v>
       </c>
       <c r="Q44" t="n">
-        <v>1207.831540890636</v>
+        <v>1281.775896183765</v>
       </c>
       <c r="R44" t="n">
-        <v>1260.86893297507</v>
+        <v>1281.775896183765</v>
       </c>
       <c r="S44" t="n">
-        <v>1281.775896183759</v>
+        <v>1281.775896183765</v>
       </c>
       <c r="T44" t="n">
-        <v>1307.765633296849</v>
+        <v>1307.765633296854</v>
       </c>
       <c r="U44" t="n">
-        <v>1306.338335309099</v>
+        <v>1306.338335309104</v>
       </c>
       <c r="V44" t="n">
-        <v>1233.467722740829</v>
+        <v>1233.467722740834</v>
       </c>
       <c r="W44" t="n">
-        <v>1143.408544297191</v>
+        <v>1143.408544297195</v>
       </c>
       <c r="X44" t="n">
-        <v>1031.242042147553</v>
+        <v>1031.242042147557</v>
       </c>
       <c r="Y44" t="n">
-        <v>896.3453853274673</v>
+        <v>896.3453853274705</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I45" t="n">
-        <v>26.15531266593697</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="J45" t="n">
-        <v>26.15531266593697</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="K45" t="n">
-        <v>26.15531266593697</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="L45" t="n">
-        <v>26.15531266593697</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="M45" t="n">
-        <v>44.30350095931748</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="N45" t="n">
-        <v>44.30350095931748</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="O45" t="n">
-        <v>44.30350095931748</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="P45" t="n">
-        <v>44.30350095931748</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.30350095931748</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="R45" t="n">
-        <v>44.30350095931748</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="S45" t="n">
-        <v>44.30350095931748</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="T45" t="n">
-        <v>44.30350095931748</v>
+        <v>32.90894848143098</v>
       </c>
       <c r="U45" t="n">
-        <v>44.30350095931748</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="V45" t="n">
-        <v>44.30350095931748</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="W45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y45" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C46" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="K46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="L46" t="n">
-        <v>83.75207946599946</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="M46" t="n">
-        <v>83.75207946599946</v>
+        <v>63.70526721319985</v>
       </c>
       <c r="N46" t="n">
-        <v>83.75207946599946</v>
+        <v>63.70526721319985</v>
       </c>
       <c r="O46" t="n">
-        <v>83.75207946599946</v>
+        <v>63.70526721319985</v>
       </c>
       <c r="P46" t="n">
-        <v>83.75207946599946</v>
+        <v>63.70526721319985</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.75207946599946</v>
+        <v>63.70526721319985</v>
       </c>
       <c r="R46" t="n">
-        <v>83.75207946599946</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="S46" t="n">
-        <v>83.75207946599946</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="T46" t="n">
-        <v>108.4700803788139</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="U46" t="n">
-        <v>68.14807016368489</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="V46" t="n">
-        <v>68.14807016368489</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="W46" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X46" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.15531266593697</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>94.84830857809212</v>
+        <v>238.3277637982059</v>
       </c>
       <c r="M11" t="n">
-        <v>81.08287392313611</v>
+        <v>273.1240611509182</v>
       </c>
       <c r="N11" t="n">
-        <v>282.3012002394789</v>
+        <v>78.8016260791176</v>
       </c>
       <c r="O11" t="n">
-        <v>246.758517458259</v>
+        <v>83.63698817515156</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>17.64272561316146</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>21.15557989560677</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8763,34 +8763,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>200.0737455268569</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.93917528729692</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,22 +8845,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
         <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>57.42401388669784</v>
       </c>
       <c r="K14" t="n">
-        <v>10.72377965979076</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>287.7060147046666</v>
+        <v>189.0290917675249</v>
       </c>
       <c r="N14" t="n">
-        <v>246.0798059249324</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O14" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
-        <v>94.95099948713833</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.5801139476182</v>
+        <v>21.15557989560677</v>
       </c>
       <c r="R14" t="n">
-        <v>31.12585314511652</v>
+        <v>31.12585314511629</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>104.266526701087</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9082,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9948,31 +9948,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>133.4162086752796</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
-        <v>122.3102135009452</v>
+        <v>122.310213500945</v>
       </c>
       <c r="M27" t="n">
-        <v>118.8763318018291</v>
+        <v>118.8763318018289</v>
       </c>
       <c r="N27" t="n">
-        <v>68.92002051861837</v>
+        <v>104.2665267010868</v>
       </c>
       <c r="O27" t="n">
-        <v>122.7654716528816</v>
+        <v>155.5625287263206</v>
       </c>
       <c r="P27" t="n">
-        <v>122.3547008802396</v>
+        <v>122.3547008802395</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10042,16 +10042,16 @@
         <v>115.6742602693208</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>53.59060649607287</v>
       </c>
       <c r="O28" t="n">
         <v>105.6509998050918</v>
       </c>
       <c r="P28" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10185,28 +10185,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.10239851425197</v>
       </c>
       <c r="K30" t="n">
-        <v>133.4162086752794</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>122.310213500945</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M30" t="n">
-        <v>151.9562980902657</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N30" t="n">
-        <v>104.2665267010868</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O30" t="n">
-        <v>122.7654716528814</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P30" t="n">
-        <v>122.3547008802395</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10270,7 +10270,7 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
         <v>105.2836065989273</v>
@@ -10282,7 +10282,7 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10422,31 +10422,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>103.7537518521667</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M33" t="n">
-        <v>189.6306537841398</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N33" t="n">
-        <v>104.2665267010868</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>122.7654716528814</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P33" t="n">
-        <v>122.3547008802395</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>92.81432394002481</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10519,7 +10519,7 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10589,13 +10589,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>16.85577704229473</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>291.2847697033555</v>
+        <v>288.6012719883392</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>38.5241916624862</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10604,10 +10604,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>122.310213500945</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10759,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2847697033555</v>
+        <v>288.6012719883391</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>176.4472654896678</v>
       </c>
       <c r="P38" t="n">
-        <v>177.4687908743246</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>56.21970195792759</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>69.16996059133484</v>
@@ -10987,19 +10987,19 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>288.6012719883371</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>118.4596562951852</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>123.5715263731539</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>104.2665267010868</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P42" t="n">
-        <v>122.3547008802395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11218,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>288.601271988337</v>
+        <v>210.39774083069</v>
       </c>
       <c r="N44" t="n">
-        <v>283.4008070189657</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>228.2250870328793</v>
       </c>
       <c r="P44" t="n">
-        <v>141.5042107083424</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
         <v>137.5801139476182</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>77.29844957480039</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>122.7654716528814</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>69.16996059133484</v>
@@ -11461,19 +11461,19 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.4640995963028</v>
+        <v>120.3675636979003</v>
       </c>
       <c r="C11" t="n">
-        <v>66.27408272567165</v>
+        <v>66.27408272567283</v>
       </c>
       <c r="D11" t="n">
-        <v>131.1490188606967</v>
+        <v>131.1490188606966</v>
       </c>
       <c r="E11" t="n">
-        <v>164.8557712801056</v>
+        <v>164.8557712801054</v>
       </c>
       <c r="F11" t="n">
-        <v>196.5761088584829</v>
+        <v>196.5761088584828</v>
       </c>
       <c r="G11" t="n">
-        <v>134.9112668294837</v>
+        <v>212.2195407034602</v>
       </c>
       <c r="H11" t="n">
-        <v>140.4444307314586</v>
+        <v>140.4444307314585</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5604432415489</v>
+        <v>34.56044324154873</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>15.86247667484234</v>
+        <v>15.86247667484217</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>43.52776139290643</v>
       </c>
       <c r="V11" t="n">
-        <v>36.94836895364483</v>
+        <v>36.94836895364602</v>
       </c>
       <c r="W11" t="n">
-        <v>131.2733230442363</v>
+        <v>53.9650491702609</v>
       </c>
       <c r="X11" t="n">
-        <v>149.5907990076771</v>
+        <v>153.1595735131754</v>
       </c>
       <c r="Y11" t="n">
-        <v>175.6624266369193</v>
+        <v>175.6624266369192</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.725252624035403</v>
+        <v>4.725252624036597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>6.379292433828141</v>
+        <v>6.379292433829335</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.4640995963028</v>
+        <v>167.4640995963026</v>
       </c>
       <c r="C14" t="n">
-        <v>66.27408272567169</v>
+        <v>143.5823565996481</v>
       </c>
       <c r="D14" t="n">
-        <v>53.84074498672015</v>
+        <v>131.1490188606966</v>
       </c>
       <c r="E14" t="n">
-        <v>164.8557712801057</v>
+        <v>164.8557712801054</v>
       </c>
       <c r="F14" t="n">
-        <v>196.576108858483</v>
+        <v>196.5761088584828</v>
       </c>
       <c r="G14" t="n">
-        <v>134.9112668294838</v>
+        <v>147.204968998827</v>
       </c>
       <c r="H14" t="n">
-        <v>140.4444307314587</v>
+        <v>140.4444307314585</v>
       </c>
       <c r="I14" t="n">
-        <v>34.56044324154895</v>
+        <v>34.56044324154873</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>15.8624766748424</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>43.52776139290665</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>114.2566428276215</v>
+        <v>36.94836895364452</v>
       </c>
       <c r="W14" t="n">
-        <v>131.2733230442364</v>
+        <v>53.96504917025942</v>
       </c>
       <c r="X14" t="n">
-        <v>153.1595735131756</v>
+        <v>153.1595735131754</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.5658907385148</v>
+        <v>175.6624266369192</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.72525262403546</v>
+        <v>4.72525262403509</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6.379292433828198</v>
+        <v>6.379292433827828</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.637943785247357</v>
+        <v>3.637943785247243</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.637943785247357</v>
+        <v>3.637943785247243</v>
       </c>
       <c r="H20" t="n">
-        <v>1.039168751049147e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.63794378524733</v>
+        <v>3.637943785247357</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1175120.40563955</v>
+        <v>1175120.405639549</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1357851.851617751</v>
+        <v>1357851.851617752</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1357851.851617751</v>
+        <v>1357851.851617752</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1357851.851617751</v>
+        <v>1357851.851617752</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1357851.851617751</v>
+        <v>1357851.851617752</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="C2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="D2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="E2" t="n">
-        <v>228127.3378525314</v>
+        <v>228127.3378525312</v>
       </c>
       <c r="F2" t="n">
         <v>228127.3378525314</v>
       </c>
       <c r="G2" t="n">
-        <v>265028.690559969</v>
+        <v>265028.6905599691</v>
       </c>
       <c r="H2" t="n">
         <v>265028.6905599691</v>
@@ -26335,25 +26335,25 @@
         <v>265028.6905599691</v>
       </c>
       <c r="J2" t="n">
-        <v>265115.5646575609</v>
+        <v>265115.5646575608</v>
       </c>
       <c r="K2" t="n">
         <v>265115.564657561</v>
       </c>
       <c r="L2" t="n">
-        <v>265115.5646575609</v>
+        <v>265115.5646575608</v>
       </c>
       <c r="M2" t="n">
+        <v>265115.5646575605</v>
+      </c>
+      <c r="N2" t="n">
         <v>265115.5646575608</v>
       </c>
-      <c r="N2" t="n">
-        <v>265115.564657561</v>
-      </c>
       <c r="O2" t="n">
-        <v>265115.564657561</v>
+        <v>265115.5646575605</v>
       </c>
       <c r="P2" t="n">
-        <v>265115.5646575609</v>
+        <v>265115.5646575607</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268761.4435092671</v>
+        <v>268761.4435092668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105018.6584353891</v>
+        <v>105018.6584353889</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160586.3785286052</v>
+        <v>160586.3785286054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105018.6584353891</v>
+        <v>105018.6584353889</v>
       </c>
       <c r="M3" t="n">
-        <v>18927.52260883788</v>
+        <v>18927.52260883749</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>75044.12068902497</v>
+        <v>75044.12068902516</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
-        <v>403153.3438384772</v>
+        <v>403153.343838477</v>
       </c>
       <c r="F4" t="n">
-        <v>403153.3438384773</v>
+        <v>403153.3438384774</v>
       </c>
       <c r="G4" t="n">
+        <v>469655.1393985729</v>
+      </c>
+      <c r="H4" t="n">
         <v>469655.139398573</v>
-      </c>
-      <c r="H4" t="n">
-        <v>469655.1393985729</v>
       </c>
       <c r="I4" t="n">
         <v>469655.1393985729</v>
       </c>
       <c r="J4" t="n">
+        <v>476917.3915607377</v>
+      </c>
+      <c r="K4" t="n">
         <v>476917.3915607379</v>
       </c>
-      <c r="K4" t="n">
-        <v>476917.3915607378</v>
-      </c>
       <c r="L4" t="n">
-        <v>476917.3915607377</v>
+        <v>476917.3915607379</v>
       </c>
       <c r="M4" t="n">
-        <v>474592.8873966299</v>
+        <v>474592.88739663</v>
       </c>
       <c r="N4" t="n">
-        <v>474592.8873966299</v>
+        <v>474592.88739663</v>
       </c>
       <c r="O4" t="n">
-        <v>474592.8873966299</v>
+        <v>474592.88739663</v>
       </c>
       <c r="P4" t="n">
-        <v>474592.8873966299</v>
+        <v>474592.88739663</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24252.0314572216</v>
+        <v>24252.03145722154</v>
       </c>
       <c r="F5" t="n">
-        <v>24252.03145722159</v>
+        <v>24252.03145722163</v>
       </c>
       <c r="G5" t="n">
-        <v>35288.04845222751</v>
+        <v>35288.04845222752</v>
       </c>
       <c r="H5" t="n">
-        <v>35288.04845222751</v>
+        <v>35288.04845222752</v>
       </c>
       <c r="I5" t="n">
         <v>35288.04845222751</v>
@@ -26500,16 +26500,16 @@
         <v>45681.59048373418</v>
       </c>
       <c r="M5" t="n">
-        <v>42970.26980494938</v>
+        <v>42970.26980494942</v>
       </c>
       <c r="N5" t="n">
-        <v>42970.26980494938</v>
+        <v>42970.26980494942</v>
       </c>
       <c r="O5" t="n">
-        <v>42970.26980494938</v>
+        <v>42970.26980494942</v>
       </c>
       <c r="P5" t="n">
-        <v>42970.26980494938</v>
+        <v>42970.26980494942</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272425.747183942</v>
+        <v>-272430.2135681472</v>
       </c>
       <c r="C6" t="n">
-        <v>-272425.747183942</v>
+        <v>-272430.2135681472</v>
       </c>
       <c r="D6" t="n">
-        <v>-272425.747183942</v>
+        <v>-272430.2135681471</v>
       </c>
       <c r="E6" t="n">
-        <v>-468039.4809524345</v>
+        <v>-468347.7161758094</v>
       </c>
       <c r="F6" t="n">
-        <v>-199278.0374431674</v>
+        <v>-199586.2726665429</v>
       </c>
       <c r="G6" t="n">
-        <v>-344933.1557262206</v>
+        <v>-344933.8796770336</v>
       </c>
       <c r="H6" t="n">
-        <v>-239914.4972908314</v>
+        <v>-239915.2212416447</v>
       </c>
       <c r="I6" t="n">
-        <v>-239914.4972908314</v>
+        <v>-239915.2212416446</v>
       </c>
       <c r="J6" t="n">
-        <v>-418069.7959155163</v>
+        <v>-418069.7959155164</v>
       </c>
       <c r="K6" t="n">
-        <v>-257483.417386911</v>
+        <v>-257483.4173869111</v>
       </c>
       <c r="L6" t="n">
-        <v>-362502.0758223</v>
+        <v>-362502.0758223002</v>
       </c>
       <c r="M6" t="n">
-        <v>-271375.1151528563</v>
+        <v>-271375.1151528564</v>
       </c>
       <c r="N6" t="n">
-        <v>-252447.5925440183</v>
+        <v>-252447.5925440186</v>
       </c>
       <c r="O6" t="n">
-        <v>-327491.7132330433</v>
+        <v>-327491.713233044</v>
       </c>
       <c r="P6" t="n">
-        <v>-252447.5925440184</v>
+        <v>-252447.5925440187</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="F2" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="G2" t="n">
         <v>337.8964638257669</v>
@@ -26713,19 +26713,19 @@
         <v>225.0784739055176</v>
       </c>
       <c r="L2" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="M2" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="N2" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="O2" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="P2" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="3">
@@ -26759,25 +26759,25 @@
         <v>100.0498891431803</v>
       </c>
       <c r="J3" t="n">
+        <v>100.0498891431806</v>
+      </c>
+      <c r="K3" t="n">
         <v>100.0498891431803</v>
       </c>
-      <c r="K3" t="n">
-        <v>100.0498891431806</v>
-      </c>
       <c r="L3" t="n">
-        <v>100.0498891431806</v>
+        <v>100.0498891431803</v>
       </c>
       <c r="M3" t="n">
-        <v>100.0498891431806</v>
+        <v>100.0498891431803</v>
       </c>
       <c r="N3" t="n">
-        <v>100.0498891431806</v>
+        <v>100.0498891431803</v>
       </c>
       <c r="O3" t="n">
-        <v>100.0498891431806</v>
+        <v>100.0498891431803</v>
       </c>
       <c r="P3" t="n">
-        <v>100.0498891431806</v>
+        <v>100.0498891431803</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="F4" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="G4" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="H4" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="I4" t="n">
         <v>77.30827387397663</v>
@@ -26820,16 +26820,16 @@
         <v>404.2496821981889</v>
       </c>
       <c r="M4" t="n">
-        <v>326.9414083242123</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="N4" t="n">
-        <v>326.9414083242123</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="O4" t="n">
-        <v>326.9414083242123</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="P4" t="n">
-        <v>326.9414083242121</v>
+        <v>326.9414083242136</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.2733230442364</v>
+        <v>131.2733230442362</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.80515086128122</v>
+        <v>93.80515086128145</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.2733230442363</v>
+        <v>131.2733230442361</v>
       </c>
       <c r="M2" t="n">
-        <v>23.65940326104734</v>
+        <v>23.65940326104686</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.80515086128122</v>
+        <v>93.80515086128145</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.2733230442364</v>
+        <v>131.2733230442362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.80515086128122</v>
+        <v>93.80515086128145</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="C11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="D11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="E11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="F11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="G11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="H11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="I11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="J11" t="n">
-        <v>77.16427416274794</v>
+        <v>186.7388807942518</v>
       </c>
       <c r="K11" t="n">
         <v>7.300693095206476</v>
       </c>
       <c r="L11" t="n">
-        <v>206.6231407815305</v>
+        <v>63.14368556141544</v>
       </c>
       <c r="M11" t="n">
-        <v>206.6231407815305</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="O11" t="n">
-        <v>43.50161149842464</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="P11" t="n">
-        <v>15.7403034995714</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.19860672951924</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="R11" t="n">
-        <v>195.1647538489544</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="S11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>206.6231407815305</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="G12" t="n">
         <v>148.7470167467461</v>
@@ -28187,55 +28187,55 @@
         <v>125.758822055979</v>
       </c>
       <c r="I12" t="n">
-        <v>114.0079486021324</v>
+        <v>107.4464644498494</v>
       </c>
       <c r="J12" t="n">
-        <v>206.6231407815305</v>
+        <v>134.4100680990574</v>
       </c>
       <c r="K12" t="n">
-        <v>133.4162086752796</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>122.3102135009452</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>118.8763318018291</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>104.266526701087</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>152.9718406970635</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>122.3547008802396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.3682874596954</v>
+        <v>181.9794436757358</v>
       </c>
       <c r="R12" t="n">
-        <v>206.6231407815305</v>
+        <v>134.869573263292</v>
       </c>
       <c r="S12" t="n">
         <v>191.6355982166063</v>
       </c>
       <c r="T12" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U12" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V12" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W12" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X12" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y12" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="13">
@@ -28251,70 +28251,70 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>152.7310982016962</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="G13" t="n">
         <v>168.7027972950638</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8423783439148</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="I13" t="n">
         <v>164.9137861866083</v>
       </c>
       <c r="J13" t="n">
-        <v>206.6231407815305</v>
+        <v>120.3825889942416</v>
       </c>
       <c r="K13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="L13" t="n">
-        <v>137.7360938000358</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M13" t="n">
-        <v>141.2081410309002</v>
+        <v>25.53388076157939</v>
       </c>
       <c r="N13" t="n">
         <v>16.82963481520679</v>
       </c>
       <c r="O13" t="n">
-        <v>37.76473650946507</v>
+        <v>198.1488098313462</v>
       </c>
       <c r="P13" t="n">
-        <v>206.6231407815305</v>
+        <v>146.2074481340442</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.7285687273037</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="R13" t="n">
         <v>203.5208941709937</v>
       </c>
       <c r="S13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="C14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="D14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="E14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="F14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="G14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="H14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="I14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="J14" t="n">
-        <v>77.16427416274794</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="K14" t="n">
-        <v>206.6231407815305</v>
+        <v>7.300693095206476</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>30.82698233093097</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>63.77065378210318</v>
       </c>
       <c r="N14" t="n">
-        <v>33.24171426992532</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>206.6231407815305</v>
+        <v>15.7403034995714</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.19860672951924</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="R14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="S14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="15">
@@ -28412,19 +28412,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>206.6231407815305</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>206.6231407815305</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>206.6231407815305</v>
+        <v>148.7470167467461</v>
       </c>
       <c r="H15" t="n">
         <v>125.758822055979</v>
       </c>
       <c r="I15" t="n">
-        <v>114.0079486021324</v>
+        <v>191.3162224761092</v>
       </c>
       <c r="J15" t="n">
         <v>134.4100680990574</v>
@@ -28436,10 +28436,10 @@
         <v>122.3102135009452</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1848936280344</v>
+        <v>196.1846056758059</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O15" t="n">
         <v>122.7654716528816</v>
@@ -28448,7 +28448,7 @@
         <v>122.3547008802396</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.3074627469923</v>
+        <v>152.4708714633599</v>
       </c>
       <c r="R15" t="n">
         <v>164.3676153010279</v>
@@ -28457,22 +28457,22 @@
         <v>191.6355982166063</v>
       </c>
       <c r="T15" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U15" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V15" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W15" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X15" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y15" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>206.6231407815305</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>206.6231407815305</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,61 +28497,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>206.6231407815305</v>
+        <v>168.7027972950638</v>
       </c>
       <c r="H16" t="n">
         <v>165.8423783439148</v>
       </c>
       <c r="I16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="J16" t="n">
-        <v>120.3825889942416</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K16" t="n">
-        <v>67.26494252016349</v>
+        <v>190.7195873614381</v>
       </c>
       <c r="L16" t="n">
-        <v>137.7360938000358</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="M16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="N16" t="n">
         <v>128.167515330418</v>
       </c>
       <c r="O16" t="n">
-        <v>175.1149854663712</v>
+        <v>143.4157363145569</v>
       </c>
       <c r="P16" t="n">
         <v>146.2074481340442</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.7285687273037</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="R16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="S16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.6231407815305</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="17">
@@ -28585,7 +28585,7 @@
         <v>241.1835840230794</v>
       </c>
       <c r="J17" t="n">
-        <v>264.0471546682284</v>
+        <v>264.0471546682286</v>
       </c>
       <c r="K17" t="n">
         <v>217.3469204413212</v>
@@ -28594,7 +28594,7 @@
         <v>224.163175485646</v>
       </c>
       <c r="M17" t="n">
-        <v>287.7060147046666</v>
+        <v>210.39774083069</v>
       </c>
       <c r="N17" t="n">
         <v>208.116492986673</v>
@@ -28606,22 +28606,22 @@
         <v>224.2658663946922</v>
       </c>
       <c r="Q17" t="n">
-        <v>305.0869945511141</v>
+        <v>284.9467477133286</v>
       </c>
       <c r="R17" t="n">
         <v>237.748993926647</v>
       </c>
       <c r="S17" t="n">
-        <v>301.8044397641303</v>
+        <v>304.9280063853012</v>
       </c>
       <c r="T17" t="n">
         <v>222.4856174563729</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1509021744371</v>
+        <v>327.4591760484139</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28819,10 +28819,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>298.3516110592705</v>
+        <v>241.1835840230794</v>
       </c>
       <c r="J20" t="n">
-        <v>264.0471546682284</v>
+        <v>186.7388807942518</v>
       </c>
       <c r="K20" t="n">
         <v>217.3469204413212</v>
@@ -28834,28 +28834,28 @@
         <v>210.39774083069</v>
       </c>
       <c r="N20" t="n">
-        <v>208.116492986673</v>
+        <v>285.4247668606498</v>
       </c>
       <c r="O20" t="n">
         <v>212.951855082707</v>
       </c>
       <c r="P20" t="n">
-        <v>224.2658663946922</v>
+        <v>301.574140268669</v>
       </c>
       <c r="Q20" t="n">
         <v>227.7787206771375</v>
       </c>
       <c r="R20" t="n">
-        <v>237.748993926647</v>
+        <v>294.9170209628381</v>
       </c>
       <c r="S20" t="n">
-        <v>304.9280063853011</v>
+        <v>227.6197325113245</v>
       </c>
       <c r="T20" t="n">
         <v>222.4856174563729</v>
       </c>
       <c r="U20" t="n">
-        <v>327.4591760484138</v>
+        <v>327.4591760484139</v>
       </c>
       <c r="V20" t="n">
         <v>337.8964638257669</v>
@@ -29071,13 +29071,13 @@
         <v>210.39774083069</v>
       </c>
       <c r="N23" t="n">
-        <v>285.4247668606496</v>
+        <v>208.116492986673</v>
       </c>
       <c r="O23" t="n">
         <v>212.951855082707</v>
       </c>
       <c r="P23" t="n">
-        <v>301.5741402686688</v>
+        <v>224.2658663946922</v>
       </c>
       <c r="Q23" t="n">
         <v>227.7787206771375</v>
@@ -29089,10 +29089,10 @@
         <v>301.8044397641303</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4856174563729</v>
+        <v>299.7938913303495</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1509021744371</v>
+        <v>327.4591760484138</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29305,22 +29305,22 @@
         <v>225.0784739055176</v>
       </c>
       <c r="M26" t="n">
-        <v>113.9405388007639</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="N26" t="n">
         <v>225.0784739055176</v>
       </c>
       <c r="O26" t="n">
-        <v>225.0784739055176</v>
+        <v>84.02681874419872</v>
       </c>
       <c r="P26" t="n">
         <v>225.0784739055176</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.19860672951924</v>
+        <v>90.1986067295191</v>
       </c>
       <c r="R26" t="n">
-        <v>195.1647538489544</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="S26" t="n">
         <v>225.0784739055176</v>
@@ -29372,10 +29372,10 @@
         <v>125.758822055979</v>
       </c>
       <c r="I27" t="n">
-        <v>184.7622705844432</v>
+        <v>107.4464644498493</v>
       </c>
       <c r="J27" t="n">
-        <v>134.4100680990574</v>
+        <v>52.70307719847244</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29387,7 +29387,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>35.34650618246861</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.177380294162102</v>
+        <v>143.3074627469922</v>
       </c>
       <c r="R27" t="n">
         <v>134.869573263292</v>
@@ -29445,40 +29445,40 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>225.0784739055176</v>
+        <v>168.7027972950638</v>
       </c>
       <c r="H28" t="n">
         <v>165.8423783439148</v>
       </c>
       <c r="I28" t="n">
-        <v>164.9137861866083</v>
+        <v>164.9137861866082</v>
       </c>
       <c r="J28" t="n">
-        <v>120.3825889942416</v>
+        <v>120.3825889942415</v>
       </c>
       <c r="K28" t="n">
-        <v>67.26494252016349</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="L28" t="n">
-        <v>32.45248720110853</v>
+        <v>32.45248720110844</v>
       </c>
       <c r="M28" t="n">
-        <v>25.53388076157939</v>
+        <v>25.53388076157929</v>
       </c>
       <c r="N28" t="n">
-        <v>16.82963481520679</v>
+        <v>79.23229149305162</v>
       </c>
       <c r="O28" t="n">
-        <v>143.8579739430723</v>
+        <v>37.76473650946499</v>
       </c>
       <c r="P28" t="n">
-        <v>58.72319510654556</v>
+        <v>146.2074481340441</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.7285687273037</v>
+        <v>127.3863316985207</v>
       </c>
       <c r="R28" t="n">
-        <v>203.5208941709937</v>
+        <v>203.5208941709936</v>
       </c>
       <c r="S28" t="n">
         <v>225.0784739055176</v>
@@ -29533,7 +29533,7 @@
         <v>225.0784739055176</v>
       </c>
       <c r="J29" t="n">
-        <v>77.16427416274783</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="K29" t="n">
         <v>225.0784739055176</v>
@@ -29542,22 +29542,22 @@
         <v>225.0784739055176</v>
       </c>
       <c r="M29" t="n">
-        <v>225.0784739055176</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>225.0784739055176</v>
       </c>
       <c r="O29" t="n">
-        <v>225.0784739055176</v>
+        <v>174.2254254737194</v>
       </c>
       <c r="P29" t="n">
         <v>225.0784739055176</v>
       </c>
       <c r="Q29" t="n">
-        <v>126.9748713675335</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="R29" t="n">
-        <v>195.1647538489543</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="S29" t="n">
         <v>225.0784739055176</v>
@@ -29606,16 +29606,16 @@
         <v>148.7470167467461</v>
       </c>
       <c r="H30" t="n">
-        <v>163.4331777498529</v>
+        <v>125.758822055979</v>
       </c>
       <c r="I30" t="n">
-        <v>107.4464644498493</v>
+        <v>184.7622705844431</v>
       </c>
       <c r="J30" t="n">
-        <v>134.4100680990574</v>
+        <v>60.30766958480547</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.177380294162013</v>
+        <v>7.177380294162102</v>
       </c>
       <c r="R30" t="n">
         <v>134.869573263292</v>
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>225.0784739055176</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29679,43 +29679,43 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>225.0784739055176</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7027972950638</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8423783439148</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="I31" t="n">
-        <v>164.9137861866082</v>
+        <v>164.9137861866083</v>
       </c>
       <c r="J31" t="n">
-        <v>120.3825889942415</v>
+        <v>120.3825889942416</v>
       </c>
       <c r="K31" t="n">
-        <v>146.1937314435936</v>
+        <v>67.26494252016349</v>
       </c>
       <c r="L31" t="n">
-        <v>32.45248720110844</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M31" t="n">
-        <v>25.53388076157929</v>
+        <v>25.53388076157939</v>
       </c>
       <c r="N31" t="n">
-        <v>16.8296348152067</v>
+        <v>16.82963481520679</v>
       </c>
       <c r="O31" t="n">
-        <v>143.4157363145568</v>
+        <v>37.76473650946507</v>
       </c>
       <c r="P31" t="n">
-        <v>58.72319510654549</v>
+        <v>161.9560135890034</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.3863316985207</v>
+        <v>127.3863316985208</v>
       </c>
       <c r="R31" t="n">
-        <v>203.5208941709936</v>
+        <v>203.5208941709937</v>
       </c>
       <c r="S31" t="n">
         <v>225.0784739055176</v>
@@ -29736,7 +29736,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.0784739055176</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="C32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="D32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="E32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="F32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="G32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="H32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="I32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="J32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="K32" t="n">
-        <v>225.0784739055175</v>
+        <v>7.300693095206476</v>
       </c>
       <c r="L32" t="n">
-        <v>225.0784739055175</v>
+        <v>166.9247323785134</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="N32" t="n">
-        <v>204.1391455302819</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="O32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="P32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="R32" t="n">
-        <v>195.1647538489543</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="S32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="T32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="U32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="V32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="W32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="X32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="Y32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
     </row>
     <row r="33">
@@ -29846,22 +29846,22 @@
         <v>125.758822055979</v>
       </c>
       <c r="I33" t="n">
-        <v>114.0079486021324</v>
+        <v>107.4464644498494</v>
       </c>
       <c r="J33" t="n">
-        <v>52.70307719847244</v>
+        <v>52.70307719847251</v>
       </c>
       <c r="K33" t="n">
-        <v>29.66245682311272</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>122.310213500945</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>175.0208486833978</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.177380294162013</v>
+        <v>50.49313880696751</v>
       </c>
       <c r="R33" t="n">
         <v>134.869573263292</v>
@@ -29882,13 +29882,13 @@
         <v>214.9806467549536</v>
       </c>
       <c r="U33" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="V33" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="W33" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29919,55 +29919,55 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>225.0784739055175</v>
+        <v>168.7027972950638</v>
       </c>
       <c r="H34" t="n">
         <v>165.8423783439148</v>
       </c>
       <c r="I34" t="n">
-        <v>225.0784739055175</v>
+        <v>164.9137861866083</v>
       </c>
       <c r="J34" t="n">
-        <v>120.3825889942415</v>
+        <v>120.3825889942416</v>
       </c>
       <c r="K34" t="n">
-        <v>67.26494252016343</v>
+        <v>67.26494252016349</v>
       </c>
       <c r="L34" t="n">
-        <v>56.82345718128259</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M34" t="n">
-        <v>25.53388076157929</v>
+        <v>25.53388076157939</v>
       </c>
       <c r="N34" t="n">
-        <v>16.8296348152067</v>
+        <v>179.2985488592678</v>
       </c>
       <c r="O34" t="n">
-        <v>143.4157363145568</v>
+        <v>37.76473650946507</v>
       </c>
       <c r="P34" t="n">
-        <v>58.72319510654549</v>
+        <v>58.72319510654556</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.3863316985207</v>
+        <v>127.3863316985208</v>
       </c>
       <c r="R34" t="n">
-        <v>225.0784739055175</v>
+        <v>203.5208941709937</v>
       </c>
       <c r="S34" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="T34" t="n">
         <v>223.7701994768533</v>
       </c>
       <c r="U34" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="V34" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="W34" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="C35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="D35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="E35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="F35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="G35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="H35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="I35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="J35" t="n">
-        <v>77.16427416274783</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="K35" t="n">
-        <v>126.5107925705582</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="L35" t="n">
-        <v>248.7378771665649</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="N35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="O35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="P35" t="n">
-        <v>248.7378771665649</v>
+        <v>32.715603281859</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="R35" t="n">
-        <v>237.7489939266469</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="S35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="T35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="W35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="36">
@@ -30068,7 +30068,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>177.5038184032255</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30083,34 +30083,34 @@
         <v>125.758822055979</v>
       </c>
       <c r="I36" t="n">
-        <v>114.0079486021324</v>
+        <v>132.3394519287799</v>
       </c>
       <c r="J36" t="n">
-        <v>134.4100680990574</v>
+        <v>52.70307719847251</v>
       </c>
       <c r="K36" t="n">
-        <v>133.4162086752794</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M36" t="n">
-        <v>118.8763318018289</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N36" t="n">
-        <v>104.2665267010868</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>122.7654716528814</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P36" t="n">
-        <v>122.3547008802395</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q36" t="n">
-        <v>143.3074627469922</v>
+        <v>143.3074627469923</v>
       </c>
       <c r="R36" t="n">
-        <v>164.3676153010279</v>
+        <v>134.869573263292</v>
       </c>
       <c r="S36" t="n">
         <v>191.6355982166063</v>
@@ -30125,7 +30125,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30162,49 +30162,49 @@
         <v>165.8423783439148</v>
       </c>
       <c r="I37" t="n">
-        <v>234.7954277563769</v>
+        <v>164.9137861866083</v>
       </c>
       <c r="J37" t="n">
-        <v>142.1788733713663</v>
+        <v>225.3251033843742</v>
       </c>
       <c r="K37" t="n">
         <v>136.4349031114983</v>
       </c>
       <c r="L37" t="n">
-        <v>32.45248720110844</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M37" t="n">
-        <v>141.2081410309001</v>
+        <v>141.2081410309002</v>
       </c>
       <c r="N37" t="n">
-        <v>128.1675153304179</v>
+        <v>128.167515330418</v>
       </c>
       <c r="O37" t="n">
-        <v>143.4157363145568</v>
+        <v>143.4157363145569</v>
       </c>
       <c r="P37" t="n">
-        <v>146.2074481340441</v>
+        <v>58.72319510654556</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.7285687273037</v>
+        <v>127.3863316985208</v>
       </c>
       <c r="R37" t="n">
-        <v>203.5208941709936</v>
+        <v>203.5208941709937</v>
       </c>
       <c r="S37" t="n">
-        <v>248.7378771665649</v>
+        <v>235.4732887233266</v>
       </c>
       <c r="T37" t="n">
         <v>223.7701994768533</v>
       </c>
       <c r="U37" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="C38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="D38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="E38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="F38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="G38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="H38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="I38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="J38" t="n">
-        <v>248.7378771665649</v>
+        <v>77.16427416274794</v>
       </c>
       <c r="K38" t="n">
-        <v>7.300693095206306</v>
+        <v>7.300693095206476</v>
       </c>
       <c r="L38" t="n">
-        <v>248.7378771665649</v>
+        <v>221.816966191538</v>
       </c>
       <c r="M38" t="n">
-        <v>246.0543794515465</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="N38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="P38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="R38" t="n">
-        <v>248.7378771665649</v>
+        <v>195.1647538489544</v>
       </c>
       <c r="S38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="T38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="W38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="39">
@@ -30323,34 +30323,34 @@
         <v>114.0079486021324</v>
       </c>
       <c r="J39" t="n">
-        <v>134.4100680990574</v>
+        <v>152.7415714257049</v>
       </c>
       <c r="K39" t="n">
-        <v>133.4162086752794</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L39" t="n">
-        <v>122.310213500945</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M39" t="n">
-        <v>118.8763318018289</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N39" t="n">
-        <v>48.04682474315918</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O39" t="n">
-        <v>122.7654716528814</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P39" t="n">
-        <v>122.3547008802395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>143.3074627469922</v>
+        <v>143.3074627469923</v>
       </c>
       <c r="R39" t="n">
         <v>164.3676153010279</v>
       </c>
       <c r="S39" t="n">
-        <v>209.9671015432533</v>
+        <v>191.6355982166063</v>
       </c>
       <c r="T39" t="n">
         <v>214.9806467549536</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30399,34 +30399,34 @@
         <v>165.8423783439148</v>
       </c>
       <c r="I40" t="n">
-        <v>169.050707760354</v>
+        <v>164.9137861866083</v>
       </c>
       <c r="J40" t="n">
-        <v>120.3825889942415</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K40" t="n">
-        <v>67.26494252016343</v>
+        <v>67.26494252016349</v>
       </c>
       <c r="L40" t="n">
-        <v>32.45248720110844</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M40" t="n">
-        <v>25.53388076157929</v>
+        <v>224.3543710439081</v>
       </c>
       <c r="N40" t="n">
-        <v>16.8296348152067</v>
+        <v>128.167515330418</v>
       </c>
       <c r="O40" t="n">
-        <v>143.4157363145568</v>
+        <v>143.4157363145569</v>
       </c>
       <c r="P40" t="n">
-        <v>146.2074481340441</v>
+        <v>58.72319510654556</v>
       </c>
       <c r="Q40" t="n">
-        <v>248.7378771665649</v>
+        <v>127.3863316985208</v>
       </c>
       <c r="R40" t="n">
-        <v>203.5208941709936</v>
+        <v>203.5208941709937</v>
       </c>
       <c r="S40" t="n">
         <v>235.4732887233266</v>
@@ -30435,13 +30435,13 @@
         <v>223.7701994768533</v>
       </c>
       <c r="U40" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="C41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="D41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="E41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="F41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="G41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="H41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="I41" t="n">
-        <v>241.1835840230794</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="J41" t="n">
-        <v>248.7378771665649</v>
+        <v>77.16427416274794</v>
       </c>
       <c r="K41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="L41" t="n">
-        <v>248.7378771665649</v>
+        <v>58.72264090581351</v>
       </c>
       <c r="M41" t="n">
-        <v>248.7378771665649</v>
+        <v>246.0543794515481</v>
       </c>
       <c r="N41" t="n">
-        <v>120.2427214518313</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="O41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="P41" t="n">
-        <v>15.74030349957121</v>
+        <v>100.6943400215383</v>
       </c>
       <c r="Q41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="R41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="S41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="T41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="W41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Y41" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="42">
@@ -30551,37 +30551,37 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>167.0785200733931</v>
+        <v>148.7470167467461</v>
       </c>
       <c r="H42" t="n">
         <v>125.758822055979</v>
       </c>
       <c r="I42" t="n">
-        <v>107.4464644498493</v>
+        <v>114.0079486021324</v>
       </c>
       <c r="J42" t="n">
         <v>134.4100680990574</v>
       </c>
       <c r="K42" t="n">
-        <v>133.4162086752794</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L42" t="n">
-        <v>122.310213500945</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M42" t="n">
-        <v>118.8763318018289</v>
+        <v>137.2078351284765</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O42" t="n">
-        <v>122.7654716528814</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q42" t="n">
-        <v>143.3074627469922</v>
+        <v>143.3074627469923</v>
       </c>
       <c r="R42" t="n">
         <v>164.3676153010279</v>
@@ -30599,7 +30599,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30630,55 +30630,55 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>226.8813496183593</v>
+        <v>168.7027972950638</v>
       </c>
       <c r="H43" t="n">
         <v>165.8423783439148</v>
       </c>
       <c r="I43" t="n">
-        <v>164.9137861866082</v>
+        <v>164.9137861866083</v>
       </c>
       <c r="J43" t="n">
-        <v>142.1788733713663</v>
+        <v>212.0605149411364</v>
       </c>
       <c r="K43" t="n">
-        <v>67.26494252016343</v>
+        <v>136.4349031114983</v>
       </c>
       <c r="L43" t="n">
-        <v>32.45248720110844</v>
+        <v>137.7360938000358</v>
       </c>
       <c r="M43" t="n">
-        <v>141.2081410309001</v>
+        <v>141.2081410309002</v>
       </c>
       <c r="N43" t="n">
-        <v>16.8296348152067</v>
+        <v>16.82963481520679</v>
       </c>
       <c r="O43" t="n">
-        <v>37.76473650946499</v>
+        <v>143.4157363145569</v>
       </c>
       <c r="P43" t="n">
-        <v>58.72319510654549</v>
+        <v>58.72319510654556</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.3863316985207</v>
+        <v>127.3863316985208</v>
       </c>
       <c r="R43" t="n">
-        <v>203.5208941709936</v>
+        <v>203.5208941709937</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4732887233266</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="T43" t="n">
-        <v>248.7378771665649</v>
+        <v>223.7701994768533</v>
       </c>
       <c r="U43" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="C44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="D44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="E44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="F44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="G44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="H44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="I44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="J44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="K44" t="n">
-        <v>7.300693095206306</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="L44" t="n">
-        <v>248.7378771665649</v>
+        <v>105.0879105526055</v>
       </c>
       <c r="M44" t="n">
-        <v>248.7378771665649</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="O44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="P44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.1986067295191</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="R44" t="n">
-        <v>248.7378771665649</v>
+        <v>195.1647538489544</v>
       </c>
       <c r="S44" t="n">
-        <v>248.7378771665649</v>
+        <v>227.6197325113245</v>
       </c>
       <c r="T44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="W44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Y44" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="45">
@@ -30794,31 +30794,31 @@
         <v>125.758822055979</v>
       </c>
       <c r="I45" t="n">
-        <v>107.4464644498493</v>
+        <v>120.8298029612171</v>
       </c>
       <c r="J45" t="n">
-        <v>57.11161852425699</v>
+        <v>134.4100680990574</v>
       </c>
       <c r="K45" t="n">
-        <v>133.4162086752794</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L45" t="n">
-        <v>122.310213500945</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M45" t="n">
-        <v>137.2078351284759</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N45" t="n">
-        <v>104.2665267010868</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P45" t="n">
-        <v>122.3547008802395</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q45" t="n">
-        <v>143.3074627469922</v>
+        <v>7.177380294162102</v>
       </c>
       <c r="R45" t="n">
         <v>164.3676153010279</v>
@@ -30830,13 +30830,13 @@
         <v>214.9806467549536</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2282281990017</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>203.3612025740061</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30873,49 +30873,49 @@
         <v>165.8423783439148</v>
       </c>
       <c r="I46" t="n">
-        <v>164.9137861866082</v>
+        <v>164.9137861866083</v>
       </c>
       <c r="J46" t="n">
-        <v>120.3825889942415</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K46" t="n">
-        <v>67.26494252016343</v>
+        <v>67.26494252016349</v>
       </c>
       <c r="L46" t="n">
-        <v>32.45248720110844</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M46" t="n">
-        <v>25.53388076157929</v>
+        <v>179.1373880483373</v>
       </c>
       <c r="N46" t="n">
-        <v>16.8296348152067</v>
+        <v>128.167515330418</v>
       </c>
       <c r="O46" t="n">
-        <v>143.4157363145568</v>
+        <v>37.76473650946507</v>
       </c>
       <c r="P46" t="n">
-        <v>146.2074481340441</v>
+        <v>58.72319510654556</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.3863316985207</v>
+        <v>169.7285687273037</v>
       </c>
       <c r="R46" t="n">
-        <v>203.5208941709936</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="S46" t="n">
         <v>235.4732887233266</v>
       </c>
       <c r="T46" t="n">
-        <v>248.7378771665649</v>
+        <v>223.7701994768533</v>
       </c>
       <c r="U46" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>248.7378771665649</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4022106096208249</v>
+        <v>0.4022106096208263</v>
       </c>
       <c r="H26" t="n">
-        <v>4.119139405779275</v>
+        <v>4.119139405779288</v>
       </c>
       <c r="I26" t="n">
-        <v>15.50622452740687</v>
+        <v>15.50622452740692</v>
       </c>
       <c r="J26" t="n">
-        <v>34.13712272830552</v>
+        <v>34.13712272830563</v>
       </c>
       <c r="K26" t="n">
-        <v>51.16269783355505</v>
+        <v>51.16269783355522</v>
       </c>
       <c r="L26" t="n">
-        <v>63.47185077773839</v>
+        <v>63.4718507777386</v>
       </c>
       <c r="M26" t="n">
-        <v>70.62466370658272</v>
+        <v>70.62466370658296</v>
       </c>
       <c r="N26" t="n">
-        <v>71.76744460116791</v>
+        <v>71.76744460116814</v>
       </c>
       <c r="O26" t="n">
-        <v>67.76796285175082</v>
+        <v>67.76796285175104</v>
       </c>
       <c r="P26" t="n">
-        <v>57.8383884267367</v>
+        <v>57.83838842673688</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.43422096969089</v>
+        <v>43.43422096969103</v>
       </c>
       <c r="R26" t="n">
-        <v>25.26536220659417</v>
+        <v>25.26536220659425</v>
       </c>
       <c r="S26" t="n">
-        <v>9.165374266734558</v>
+        <v>9.165374266734588</v>
       </c>
       <c r="T26" t="n">
-        <v>1.760676943615162</v>
+        <v>1.760676943615168</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03217684876966599</v>
+        <v>0.0321768487696661</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2152016483457085</v>
+        <v>0.2152016483457092</v>
       </c>
       <c r="H27" t="n">
-        <v>2.078394866917765</v>
+        <v>2.078394866917771</v>
       </c>
       <c r="I27" t="n">
-        <v>7.409354997867597</v>
+        <v>7.409354997867622</v>
       </c>
       <c r="J27" t="n">
-        <v>20.33183643427591</v>
+        <v>20.33183643427598</v>
       </c>
       <c r="K27" t="n">
-        <v>34.75034687343838</v>
+        <v>34.7503468734385</v>
       </c>
       <c r="L27" t="n">
-        <v>46.72612983050132</v>
+        <v>46.72612983050148</v>
       </c>
       <c r="M27" t="n">
-        <v>54.52718958303325</v>
+        <v>54.52718958303343</v>
       </c>
       <c r="N27" t="n">
-        <v>55.97036204057969</v>
+        <v>55.97036204057988</v>
       </c>
       <c r="O27" t="n">
-        <v>51.20194656934057</v>
+        <v>51.20194656934074</v>
       </c>
       <c r="P27" t="n">
-        <v>41.09407616524324</v>
+        <v>41.09407616524337</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.47030163795396</v>
+        <v>27.47030163795404</v>
       </c>
       <c r="R27" t="n">
-        <v>13.36137953500812</v>
+        <v>13.36137953500816</v>
       </c>
       <c r="S27" t="n">
-        <v>3.997276231333662</v>
+        <v>3.997276231333676</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8674136615337985</v>
+        <v>0.8674136615338014</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01415800318063873</v>
+        <v>0.01415800318063877</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1804178328811447</v>
+        <v>0.1804178328811453</v>
       </c>
       <c r="H28" t="n">
-        <v>1.604078550525088</v>
+        <v>1.604078550525093</v>
       </c>
       <c r="I28" t="n">
-        <v>5.425656283371155</v>
+        <v>5.425656283371173</v>
       </c>
       <c r="J28" t="n">
-        <v>12.75554078469693</v>
+        <v>12.75554078469697</v>
       </c>
       <c r="K28" t="n">
-        <v>20.96127185655481</v>
+        <v>20.96127185655488</v>
       </c>
       <c r="L28" t="n">
-        <v>26.82321126307492</v>
+        <v>26.82321126307501</v>
       </c>
       <c r="M28" t="n">
-        <v>28.28131538517799</v>
+        <v>28.28131538517808</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60884891716647</v>
+        <v>27.60884891716656</v>
       </c>
       <c r="O28" t="n">
-        <v>25.50124059669127</v>
+        <v>25.50124059669135</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8207168059159</v>
+        <v>21.82071680591597</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.10753326062022</v>
+        <v>15.10753326062027</v>
       </c>
       <c r="R28" t="n">
-        <v>8.112241831183107</v>
+        <v>8.112241831183132</v>
       </c>
       <c r="S28" t="n">
-        <v>3.144190778483221</v>
+        <v>3.144190778483232</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7708761950376183</v>
+        <v>0.7708761950376208</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009840972702607908</v>
+        <v>0.009840972702607939</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4022106096208263</v>
+        <v>0.4022106096208249</v>
       </c>
       <c r="H29" t="n">
-        <v>4.119139405779288</v>
+        <v>4.119139405779275</v>
       </c>
       <c r="I29" t="n">
-        <v>15.50622452740692</v>
+        <v>15.50622452740687</v>
       </c>
       <c r="J29" t="n">
-        <v>34.13712272830563</v>
+        <v>34.13712272830552</v>
       </c>
       <c r="K29" t="n">
-        <v>51.16269783355522</v>
+        <v>51.16269783355505</v>
       </c>
       <c r="L29" t="n">
-        <v>63.4718507777386</v>
+        <v>63.47185077773839</v>
       </c>
       <c r="M29" t="n">
-        <v>70.62466370658296</v>
+        <v>70.62466370658272</v>
       </c>
       <c r="N29" t="n">
-        <v>71.76744460116814</v>
+        <v>71.76744460116791</v>
       </c>
       <c r="O29" t="n">
-        <v>67.76796285175104</v>
+        <v>67.76796285175082</v>
       </c>
       <c r="P29" t="n">
-        <v>57.83838842673688</v>
+        <v>57.8383884267367</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.43422096969103</v>
+        <v>43.43422096969089</v>
       </c>
       <c r="R29" t="n">
-        <v>25.26536220659425</v>
+        <v>25.26536220659417</v>
       </c>
       <c r="S29" t="n">
-        <v>9.165374266734588</v>
+        <v>9.165374266734558</v>
       </c>
       <c r="T29" t="n">
-        <v>1.760676943615168</v>
+        <v>1.760676943615162</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0321768487696661</v>
+        <v>0.03217684876966599</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2152016483457092</v>
+        <v>0.2152016483457085</v>
       </c>
       <c r="H30" t="n">
-        <v>2.078394866917771</v>
+        <v>2.078394866917765</v>
       </c>
       <c r="I30" t="n">
-        <v>7.409354997867622</v>
+        <v>7.409354997867597</v>
       </c>
       <c r="J30" t="n">
-        <v>20.33183643427598</v>
+        <v>20.33183643427591</v>
       </c>
       <c r="K30" t="n">
-        <v>34.7503468734385</v>
+        <v>34.75034687343838</v>
       </c>
       <c r="L30" t="n">
-        <v>46.72612983050148</v>
+        <v>46.72612983050132</v>
       </c>
       <c r="M30" t="n">
-        <v>54.52718958303343</v>
+        <v>54.52718958303325</v>
       </c>
       <c r="N30" t="n">
-        <v>55.97036204057988</v>
+        <v>55.97036204057969</v>
       </c>
       <c r="O30" t="n">
-        <v>51.20194656934074</v>
+        <v>51.20194656934057</v>
       </c>
       <c r="P30" t="n">
-        <v>41.09407616524337</v>
+        <v>41.09407616524324</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.47030163795404</v>
+        <v>27.47030163795396</v>
       </c>
       <c r="R30" t="n">
-        <v>13.36137953500816</v>
+        <v>13.36137953500812</v>
       </c>
       <c r="S30" t="n">
-        <v>3.997276231333676</v>
+        <v>3.997276231333662</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8674136615338014</v>
+        <v>0.8674136615337985</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01415800318063877</v>
+        <v>0.01415800318063873</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1804178328811453</v>
+        <v>0.1804178328811447</v>
       </c>
       <c r="H31" t="n">
-        <v>1.604078550525093</v>
+        <v>1.604078550525088</v>
       </c>
       <c r="I31" t="n">
-        <v>5.425656283371173</v>
+        <v>5.425656283371155</v>
       </c>
       <c r="J31" t="n">
-        <v>12.75554078469697</v>
+        <v>12.75554078469693</v>
       </c>
       <c r="K31" t="n">
-        <v>20.96127185655488</v>
+        <v>20.96127185655481</v>
       </c>
       <c r="L31" t="n">
-        <v>26.82321126307501</v>
+        <v>26.82321126307492</v>
       </c>
       <c r="M31" t="n">
-        <v>28.28131538517808</v>
+        <v>28.28131538517799</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60884891716656</v>
+        <v>27.60884891716647</v>
       </c>
       <c r="O31" t="n">
-        <v>25.50124059669135</v>
+        <v>25.50124059669127</v>
       </c>
       <c r="P31" t="n">
-        <v>21.82071680591597</v>
+        <v>21.8207168059159</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.10753326062027</v>
+        <v>15.10753326062022</v>
       </c>
       <c r="R31" t="n">
-        <v>8.112241831183132</v>
+        <v>8.112241831183107</v>
       </c>
       <c r="S31" t="n">
-        <v>3.144190778483232</v>
+        <v>3.144190778483221</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7708761950376208</v>
+        <v>0.7708761950376183</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009840972702607939</v>
+        <v>0.009840972702607908</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4022106096208263</v>
+        <v>0.4022106096208249</v>
       </c>
       <c r="H32" t="n">
-        <v>4.119139405779288</v>
+        <v>4.119139405779275</v>
       </c>
       <c r="I32" t="n">
-        <v>15.50622452740692</v>
+        <v>15.50622452740687</v>
       </c>
       <c r="J32" t="n">
-        <v>34.13712272830563</v>
+        <v>34.13712272830552</v>
       </c>
       <c r="K32" t="n">
-        <v>51.16269783355522</v>
+        <v>51.16269783355505</v>
       </c>
       <c r="L32" t="n">
-        <v>63.4718507777386</v>
+        <v>63.47185077773839</v>
       </c>
       <c r="M32" t="n">
-        <v>70.62466370658296</v>
+        <v>70.62466370658272</v>
       </c>
       <c r="N32" t="n">
-        <v>71.76744460116814</v>
+        <v>71.76744460116791</v>
       </c>
       <c r="O32" t="n">
-        <v>67.76796285175104</v>
+        <v>67.76796285175082</v>
       </c>
       <c r="P32" t="n">
-        <v>57.83838842673688</v>
+        <v>57.8383884267367</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.43422096969103</v>
+        <v>43.43422096969089</v>
       </c>
       <c r="R32" t="n">
-        <v>25.26536220659425</v>
+        <v>25.26536220659417</v>
       </c>
       <c r="S32" t="n">
-        <v>9.165374266734588</v>
+        <v>9.165374266734558</v>
       </c>
       <c r="T32" t="n">
-        <v>1.760676943615168</v>
+        <v>1.760676943615162</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0321768487696661</v>
+        <v>0.03217684876966599</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2152016483457092</v>
+        <v>0.2152016483457085</v>
       </c>
       <c r="H33" t="n">
-        <v>2.078394866917771</v>
+        <v>2.078394866917765</v>
       </c>
       <c r="I33" t="n">
-        <v>7.409354997867622</v>
+        <v>7.409354997867597</v>
       </c>
       <c r="J33" t="n">
-        <v>20.33183643427598</v>
+        <v>20.33183643427591</v>
       </c>
       <c r="K33" t="n">
-        <v>34.7503468734385</v>
+        <v>34.75034687343838</v>
       </c>
       <c r="L33" t="n">
-        <v>46.72612983050148</v>
+        <v>46.72612983050132</v>
       </c>
       <c r="M33" t="n">
-        <v>54.52718958303343</v>
+        <v>54.52718958303325</v>
       </c>
       <c r="N33" t="n">
-        <v>55.97036204057988</v>
+        <v>55.97036204057969</v>
       </c>
       <c r="O33" t="n">
-        <v>51.20194656934074</v>
+        <v>51.20194656934057</v>
       </c>
       <c r="P33" t="n">
-        <v>41.09407616524337</v>
+        <v>41.09407616524324</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.47030163795404</v>
+        <v>27.47030163795396</v>
       </c>
       <c r="R33" t="n">
-        <v>13.36137953500816</v>
+        <v>13.36137953500812</v>
       </c>
       <c r="S33" t="n">
-        <v>3.997276231333676</v>
+        <v>3.997276231333662</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8674136615338014</v>
+        <v>0.8674136615337985</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01415800318063877</v>
+        <v>0.01415800318063873</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1804178328811453</v>
+        <v>0.1804178328811447</v>
       </c>
       <c r="H34" t="n">
-        <v>1.604078550525093</v>
+        <v>1.604078550525088</v>
       </c>
       <c r="I34" t="n">
-        <v>5.425656283371173</v>
+        <v>5.425656283371155</v>
       </c>
       <c r="J34" t="n">
-        <v>12.75554078469697</v>
+        <v>12.75554078469693</v>
       </c>
       <c r="K34" t="n">
-        <v>20.96127185655488</v>
+        <v>20.96127185655481</v>
       </c>
       <c r="L34" t="n">
-        <v>26.82321126307501</v>
+        <v>26.82321126307492</v>
       </c>
       <c r="M34" t="n">
-        <v>28.28131538517808</v>
+        <v>28.28131538517799</v>
       </c>
       <c r="N34" t="n">
-        <v>27.60884891716656</v>
+        <v>27.60884891716647</v>
       </c>
       <c r="O34" t="n">
-        <v>25.50124059669135</v>
+        <v>25.50124059669127</v>
       </c>
       <c r="P34" t="n">
-        <v>21.82071680591597</v>
+        <v>21.8207168059159</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.10753326062027</v>
+        <v>15.10753326062022</v>
       </c>
       <c r="R34" t="n">
-        <v>8.112241831183132</v>
+        <v>8.112241831183107</v>
       </c>
       <c r="S34" t="n">
-        <v>3.144190778483232</v>
+        <v>3.144190778483221</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7708761950376208</v>
+        <v>0.7708761950376183</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009840972702607939</v>
+        <v>0.009840972702607908</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4022106096208263</v>
+        <v>0.4022106096208249</v>
       </c>
       <c r="H35" t="n">
-        <v>4.119139405779288</v>
+        <v>4.119139405779275</v>
       </c>
       <c r="I35" t="n">
-        <v>15.50622452740692</v>
+        <v>15.50622452740687</v>
       </c>
       <c r="J35" t="n">
-        <v>34.13712272830563</v>
+        <v>34.13712272830552</v>
       </c>
       <c r="K35" t="n">
-        <v>51.16269783355522</v>
+        <v>51.16269783355505</v>
       </c>
       <c r="L35" t="n">
-        <v>63.4718507777386</v>
+        <v>63.47185077773839</v>
       </c>
       <c r="M35" t="n">
-        <v>70.62466370658296</v>
+        <v>70.62466370658272</v>
       </c>
       <c r="N35" t="n">
-        <v>71.76744460116814</v>
+        <v>71.76744460116791</v>
       </c>
       <c r="O35" t="n">
-        <v>67.76796285175104</v>
+        <v>67.76796285175082</v>
       </c>
       <c r="P35" t="n">
-        <v>57.83838842673688</v>
+        <v>57.8383884267367</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.43422096969103</v>
+        <v>43.43422096969089</v>
       </c>
       <c r="R35" t="n">
-        <v>25.26536220659425</v>
+        <v>25.26536220659417</v>
       </c>
       <c r="S35" t="n">
-        <v>9.165374266734588</v>
+        <v>9.165374266734558</v>
       </c>
       <c r="T35" t="n">
-        <v>1.760676943615168</v>
+        <v>1.760676943615162</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0321768487696661</v>
+        <v>0.03217684876966599</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2152016483457092</v>
+        <v>0.2152016483457085</v>
       </c>
       <c r="H36" t="n">
-        <v>2.078394866917771</v>
+        <v>2.078394866917765</v>
       </c>
       <c r="I36" t="n">
-        <v>7.409354997867622</v>
+        <v>7.409354997867597</v>
       </c>
       <c r="J36" t="n">
-        <v>20.33183643427598</v>
+        <v>20.33183643427591</v>
       </c>
       <c r="K36" t="n">
-        <v>34.7503468734385</v>
+        <v>34.75034687343838</v>
       </c>
       <c r="L36" t="n">
-        <v>46.72612983050148</v>
+        <v>46.72612983050132</v>
       </c>
       <c r="M36" t="n">
-        <v>54.52718958303343</v>
+        <v>54.52718958303325</v>
       </c>
       <c r="N36" t="n">
-        <v>55.97036204057988</v>
+        <v>55.97036204057969</v>
       </c>
       <c r="O36" t="n">
-        <v>51.20194656934074</v>
+        <v>51.20194656934057</v>
       </c>
       <c r="P36" t="n">
-        <v>41.09407616524337</v>
+        <v>41.09407616524324</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.47030163795404</v>
+        <v>27.47030163795396</v>
       </c>
       <c r="R36" t="n">
-        <v>13.36137953500816</v>
+        <v>13.36137953500812</v>
       </c>
       <c r="S36" t="n">
-        <v>3.997276231333676</v>
+        <v>3.997276231333662</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8674136615338014</v>
+        <v>0.8674136615337985</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01415800318063877</v>
+        <v>0.01415800318063873</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1804178328811453</v>
+        <v>0.1804178328811447</v>
       </c>
       <c r="H37" t="n">
-        <v>1.604078550525093</v>
+        <v>1.604078550525088</v>
       </c>
       <c r="I37" t="n">
-        <v>5.425656283371173</v>
+        <v>5.425656283371155</v>
       </c>
       <c r="J37" t="n">
-        <v>12.75554078469697</v>
+        <v>12.75554078469693</v>
       </c>
       <c r="K37" t="n">
-        <v>20.96127185655488</v>
+        <v>20.96127185655481</v>
       </c>
       <c r="L37" t="n">
-        <v>26.82321126307501</v>
+        <v>26.82321126307492</v>
       </c>
       <c r="M37" t="n">
-        <v>28.28131538517808</v>
+        <v>28.28131538517799</v>
       </c>
       <c r="N37" t="n">
-        <v>27.60884891716656</v>
+        <v>27.60884891716647</v>
       </c>
       <c r="O37" t="n">
-        <v>25.50124059669135</v>
+        <v>25.50124059669127</v>
       </c>
       <c r="P37" t="n">
-        <v>21.82071680591597</v>
+        <v>21.8207168059159</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.10753326062027</v>
+        <v>15.10753326062022</v>
       </c>
       <c r="R37" t="n">
-        <v>8.112241831183132</v>
+        <v>8.112241831183107</v>
       </c>
       <c r="S37" t="n">
-        <v>3.144190778483232</v>
+        <v>3.144190778483221</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7708761950376208</v>
+        <v>0.7708761950376183</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009840972702607939</v>
+        <v>0.009840972702607908</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4022106096208263</v>
+        <v>0.4022106096208249</v>
       </c>
       <c r="H38" t="n">
-        <v>4.119139405779288</v>
+        <v>4.119139405779275</v>
       </c>
       <c r="I38" t="n">
-        <v>15.50622452740692</v>
+        <v>15.50622452740687</v>
       </c>
       <c r="J38" t="n">
-        <v>34.13712272830563</v>
+        <v>34.13712272830552</v>
       </c>
       <c r="K38" t="n">
-        <v>51.16269783355522</v>
+        <v>51.16269783355505</v>
       </c>
       <c r="L38" t="n">
-        <v>63.4718507777386</v>
+        <v>63.47185077773839</v>
       </c>
       <c r="M38" t="n">
-        <v>70.62466370658296</v>
+        <v>70.62466370658272</v>
       </c>
       <c r="N38" t="n">
-        <v>71.76744460116814</v>
+        <v>71.76744460116791</v>
       </c>
       <c r="O38" t="n">
-        <v>67.76796285175104</v>
+        <v>67.76796285175082</v>
       </c>
       <c r="P38" t="n">
-        <v>57.83838842673688</v>
+        <v>57.8383884267367</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.43422096969103</v>
+        <v>43.43422096969089</v>
       </c>
       <c r="R38" t="n">
-        <v>25.26536220659425</v>
+        <v>25.26536220659417</v>
       </c>
       <c r="S38" t="n">
-        <v>9.165374266734588</v>
+        <v>9.165374266734558</v>
       </c>
       <c r="T38" t="n">
-        <v>1.760676943615168</v>
+        <v>1.760676943615162</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0321768487696661</v>
+        <v>0.03217684876966599</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2152016483457092</v>
+        <v>0.2152016483457085</v>
       </c>
       <c r="H39" t="n">
-        <v>2.078394866917771</v>
+        <v>2.078394866917765</v>
       </c>
       <c r="I39" t="n">
-        <v>7.409354997867622</v>
+        <v>7.409354997867597</v>
       </c>
       <c r="J39" t="n">
-        <v>20.33183643427598</v>
+        <v>20.33183643427591</v>
       </c>
       <c r="K39" t="n">
-        <v>34.7503468734385</v>
+        <v>34.75034687343838</v>
       </c>
       <c r="L39" t="n">
-        <v>46.72612983050148</v>
+        <v>46.72612983050132</v>
       </c>
       <c r="M39" t="n">
-        <v>54.52718958303343</v>
+        <v>54.52718958303325</v>
       </c>
       <c r="N39" t="n">
-        <v>55.97036204057988</v>
+        <v>55.97036204057969</v>
       </c>
       <c r="O39" t="n">
-        <v>51.20194656934074</v>
+        <v>51.20194656934057</v>
       </c>
       <c r="P39" t="n">
-        <v>41.09407616524337</v>
+        <v>41.09407616524324</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.47030163795404</v>
+        <v>27.47030163795396</v>
       </c>
       <c r="R39" t="n">
-        <v>13.36137953500816</v>
+        <v>13.36137953500812</v>
       </c>
       <c r="S39" t="n">
-        <v>3.997276231333676</v>
+        <v>3.997276231333662</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8674136615338014</v>
+        <v>0.8674136615337985</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01415800318063877</v>
+        <v>0.01415800318063873</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1804178328811453</v>
+        <v>0.1804178328811447</v>
       </c>
       <c r="H40" t="n">
-        <v>1.604078550525093</v>
+        <v>1.604078550525088</v>
       </c>
       <c r="I40" t="n">
-        <v>5.425656283371173</v>
+        <v>5.425656283371155</v>
       </c>
       <c r="J40" t="n">
-        <v>12.75554078469697</v>
+        <v>12.75554078469693</v>
       </c>
       <c r="K40" t="n">
-        <v>20.96127185655488</v>
+        <v>20.96127185655481</v>
       </c>
       <c r="L40" t="n">
-        <v>26.82321126307501</v>
+        <v>26.82321126307492</v>
       </c>
       <c r="M40" t="n">
-        <v>28.28131538517808</v>
+        <v>28.28131538517799</v>
       </c>
       <c r="N40" t="n">
-        <v>27.60884891716656</v>
+        <v>27.60884891716647</v>
       </c>
       <c r="O40" t="n">
-        <v>25.50124059669135</v>
+        <v>25.50124059669127</v>
       </c>
       <c r="P40" t="n">
-        <v>21.82071680591597</v>
+        <v>21.8207168059159</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.10753326062027</v>
+        <v>15.10753326062022</v>
       </c>
       <c r="R40" t="n">
-        <v>8.112241831183132</v>
+        <v>8.112241831183107</v>
       </c>
       <c r="S40" t="n">
-        <v>3.144190778483232</v>
+        <v>3.144190778483221</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7708761950376208</v>
+        <v>0.7708761950376183</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009840972702607939</v>
+        <v>0.009840972702607908</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4022106096208263</v>
+        <v>0.4022106096208249</v>
       </c>
       <c r="H41" t="n">
-        <v>4.119139405779288</v>
+        <v>4.119139405779275</v>
       </c>
       <c r="I41" t="n">
-        <v>15.50622452740692</v>
+        <v>15.50622452740687</v>
       </c>
       <c r="J41" t="n">
-        <v>34.13712272830563</v>
+        <v>34.13712272830552</v>
       </c>
       <c r="K41" t="n">
-        <v>51.16269783355522</v>
+        <v>51.16269783355505</v>
       </c>
       <c r="L41" t="n">
-        <v>63.4718507777386</v>
+        <v>63.47185077773839</v>
       </c>
       <c r="M41" t="n">
-        <v>70.62466370658296</v>
+        <v>70.62466370658272</v>
       </c>
       <c r="N41" t="n">
-        <v>71.76744460116814</v>
+        <v>71.76744460116791</v>
       </c>
       <c r="O41" t="n">
-        <v>67.76796285175104</v>
+        <v>67.76796285175082</v>
       </c>
       <c r="P41" t="n">
-        <v>57.83838842673688</v>
+        <v>57.8383884267367</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.43422096969103</v>
+        <v>43.43422096969089</v>
       </c>
       <c r="R41" t="n">
-        <v>25.26536220659425</v>
+        <v>25.26536220659417</v>
       </c>
       <c r="S41" t="n">
-        <v>9.165374266734588</v>
+        <v>9.165374266734558</v>
       </c>
       <c r="T41" t="n">
-        <v>1.760676943615168</v>
+        <v>1.760676943615162</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0321768487696661</v>
+        <v>0.03217684876966599</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2152016483457092</v>
+        <v>0.2152016483457085</v>
       </c>
       <c r="H42" t="n">
-        <v>2.078394866917771</v>
+        <v>2.078394866917765</v>
       </c>
       <c r="I42" t="n">
-        <v>7.409354997867622</v>
+        <v>7.409354997867597</v>
       </c>
       <c r="J42" t="n">
-        <v>20.33183643427598</v>
+        <v>20.33183643427591</v>
       </c>
       <c r="K42" t="n">
-        <v>34.7503468734385</v>
+        <v>34.75034687343838</v>
       </c>
       <c r="L42" t="n">
-        <v>46.72612983050148</v>
+        <v>46.72612983050132</v>
       </c>
       <c r="M42" t="n">
-        <v>54.52718958303343</v>
+        <v>54.52718958303325</v>
       </c>
       <c r="N42" t="n">
-        <v>55.97036204057988</v>
+        <v>55.97036204057969</v>
       </c>
       <c r="O42" t="n">
-        <v>51.20194656934074</v>
+        <v>51.20194656934057</v>
       </c>
       <c r="P42" t="n">
-        <v>41.09407616524337</v>
+        <v>41.09407616524324</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.47030163795404</v>
+        <v>27.47030163795396</v>
       </c>
       <c r="R42" t="n">
-        <v>13.36137953500816</v>
+        <v>13.36137953500812</v>
       </c>
       <c r="S42" t="n">
-        <v>3.997276231333676</v>
+        <v>3.997276231333662</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8674136615338014</v>
+        <v>0.8674136615337985</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01415800318063877</v>
+        <v>0.01415800318063873</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1804178328811453</v>
+        <v>0.1804178328811447</v>
       </c>
       <c r="H43" t="n">
-        <v>1.604078550525093</v>
+        <v>1.604078550525088</v>
       </c>
       <c r="I43" t="n">
-        <v>5.425656283371173</v>
+        <v>5.425656283371155</v>
       </c>
       <c r="J43" t="n">
-        <v>12.75554078469697</v>
+        <v>12.75554078469693</v>
       </c>
       <c r="K43" t="n">
-        <v>20.96127185655488</v>
+        <v>20.96127185655481</v>
       </c>
       <c r="L43" t="n">
-        <v>26.82321126307501</v>
+        <v>26.82321126307492</v>
       </c>
       <c r="M43" t="n">
-        <v>28.28131538517808</v>
+        <v>28.28131538517799</v>
       </c>
       <c r="N43" t="n">
-        <v>27.60884891716656</v>
+        <v>27.60884891716647</v>
       </c>
       <c r="O43" t="n">
-        <v>25.50124059669135</v>
+        <v>25.50124059669127</v>
       </c>
       <c r="P43" t="n">
-        <v>21.82071680591597</v>
+        <v>21.8207168059159</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.10753326062027</v>
+        <v>15.10753326062022</v>
       </c>
       <c r="R43" t="n">
-        <v>8.112241831183132</v>
+        <v>8.112241831183107</v>
       </c>
       <c r="S43" t="n">
-        <v>3.144190778483232</v>
+        <v>3.144190778483221</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7708761950376208</v>
+        <v>0.7708761950376183</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009840972702607939</v>
+        <v>0.009840972702607908</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4022106096208263</v>
+        <v>0.4022106096208249</v>
       </c>
       <c r="H44" t="n">
-        <v>4.119139405779288</v>
+        <v>4.119139405779275</v>
       </c>
       <c r="I44" t="n">
-        <v>15.50622452740692</v>
+        <v>15.50622452740687</v>
       </c>
       <c r="J44" t="n">
-        <v>34.13712272830563</v>
+        <v>34.13712272830552</v>
       </c>
       <c r="K44" t="n">
-        <v>51.16269783355522</v>
+        <v>51.16269783355505</v>
       </c>
       <c r="L44" t="n">
-        <v>63.4718507777386</v>
+        <v>63.47185077773839</v>
       </c>
       <c r="M44" t="n">
-        <v>70.62466370658296</v>
+        <v>70.62466370658272</v>
       </c>
       <c r="N44" t="n">
-        <v>71.76744460116814</v>
+        <v>71.76744460116791</v>
       </c>
       <c r="O44" t="n">
-        <v>67.76796285175104</v>
+        <v>67.76796285175082</v>
       </c>
       <c r="P44" t="n">
-        <v>57.83838842673688</v>
+        <v>57.8383884267367</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.43422096969103</v>
+        <v>43.43422096969089</v>
       </c>
       <c r="R44" t="n">
-        <v>25.26536220659425</v>
+        <v>25.26536220659417</v>
       </c>
       <c r="S44" t="n">
-        <v>9.165374266734588</v>
+        <v>9.165374266734558</v>
       </c>
       <c r="T44" t="n">
-        <v>1.760676943615168</v>
+        <v>1.760676943615162</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0321768487696661</v>
+        <v>0.03217684876966599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2152016483457092</v>
+        <v>0.2152016483457085</v>
       </c>
       <c r="H45" t="n">
-        <v>2.078394866917771</v>
+        <v>2.078394866917765</v>
       </c>
       <c r="I45" t="n">
-        <v>7.409354997867622</v>
+        <v>7.409354997867597</v>
       </c>
       <c r="J45" t="n">
-        <v>20.33183643427598</v>
+        <v>20.33183643427591</v>
       </c>
       <c r="K45" t="n">
-        <v>34.7503468734385</v>
+        <v>34.75034687343838</v>
       </c>
       <c r="L45" t="n">
-        <v>46.72612983050148</v>
+        <v>46.72612983050132</v>
       </c>
       <c r="M45" t="n">
-        <v>54.52718958303343</v>
+        <v>54.52718958303325</v>
       </c>
       <c r="N45" t="n">
-        <v>55.97036204057988</v>
+        <v>55.97036204057969</v>
       </c>
       <c r="O45" t="n">
-        <v>51.20194656934074</v>
+        <v>51.20194656934057</v>
       </c>
       <c r="P45" t="n">
-        <v>41.09407616524337</v>
+        <v>41.09407616524324</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.47030163795404</v>
+        <v>27.47030163795396</v>
       </c>
       <c r="R45" t="n">
-        <v>13.36137953500816</v>
+        <v>13.36137953500812</v>
       </c>
       <c r="S45" t="n">
-        <v>3.997276231333676</v>
+        <v>3.997276231333662</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8674136615338014</v>
+        <v>0.8674136615337985</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01415800318063877</v>
+        <v>0.01415800318063873</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1804178328811453</v>
+        <v>0.1804178328811447</v>
       </c>
       <c r="H46" t="n">
-        <v>1.604078550525093</v>
+        <v>1.604078550525088</v>
       </c>
       <c r="I46" t="n">
-        <v>5.425656283371173</v>
+        <v>5.425656283371155</v>
       </c>
       <c r="J46" t="n">
-        <v>12.75554078469697</v>
+        <v>12.75554078469693</v>
       </c>
       <c r="K46" t="n">
-        <v>20.96127185655488</v>
+        <v>20.96127185655481</v>
       </c>
       <c r="L46" t="n">
-        <v>26.82321126307501</v>
+        <v>26.82321126307492</v>
       </c>
       <c r="M46" t="n">
-        <v>28.28131538517808</v>
+        <v>28.28131538517799</v>
       </c>
       <c r="N46" t="n">
-        <v>27.60884891716656</v>
+        <v>27.60884891716647</v>
       </c>
       <c r="O46" t="n">
-        <v>25.50124059669135</v>
+        <v>25.50124059669127</v>
       </c>
       <c r="P46" t="n">
-        <v>21.82071680591597</v>
+        <v>21.8207168059159</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.10753326062027</v>
+        <v>15.10753326062022</v>
       </c>
       <c r="R46" t="n">
-        <v>8.112241831183132</v>
+        <v>8.112241831183107</v>
       </c>
       <c r="S46" t="n">
-        <v>3.144190778483232</v>
+        <v>3.144190778483221</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7708761950376208</v>
+        <v>0.7708761950376183</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009840972702607939</v>
+        <v>0.009840972702607908</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="M11" t="n">
-        <v>77.30827387397663</v>
+        <v>62.72632032022826</v>
       </c>
       <c r="N11" t="n">
-        <v>74.18470725280588</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="O11" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.45838693257632</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35465,7 +35465,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>19.10498925716462</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>47.79970166160237</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>72.2130726824731</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>30.20636904418186</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>38.67198092874353</v>
       </c>
       <c r="R12" t="n">
-        <v>42.25552548050262</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35547,28 +35547,28 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.548447950985524</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>67.69625856308389</v>
+        <v>67.69625856308406</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.78076243761592</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>64.44426741016423</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>70.18823767003221</v>
+        <v>70.18823767003238</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>54.7330735167893</v>
       </c>
       <c r="P13" t="n">
-        <v>60.41569264748635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>36.89457205422699</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>46.48129154304582</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="M14" t="n">
-        <v>77.30827387397663</v>
+        <v>42.40200471893812</v>
       </c>
       <c r="N14" t="n">
-        <v>71.2050272081847</v>
+        <v>75.28431403229271</v>
       </c>
       <c r="O14" t="n">
         <v>33.80666237555199</v>
       </c>
       <c r="P14" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35708,19 +35708,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>34.79556894173081</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>47.79970166160214</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>57.87612403478435</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>23.30856182620526</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>9.163408716367577</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.00622011656239</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>61.44049053081977</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,40 +35793,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>37.92034348646666</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.70935459492222</v>
+        <v>41.70935459492244</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>54.28468424993974</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>68.88704698149492</v>
       </c>
       <c r="M16" t="n">
-        <v>65.41499975063032</v>
+        <v>65.41499975063054</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>31.69924915181432</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>36.89457205422699</v>
       </c>
       <c r="R16" t="n">
-        <v>3.102246610536818</v>
+        <v>3.102246610537046</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.30827387397663</v>
+        <v>57.16802703619111</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>74.18470725280588</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>57.16802703619099</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,28 +36130,28 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>57.16802703619111</v>
       </c>
       <c r="S20" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>77.30827387397663</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="V20" t="n">
         <v>17.01668021661487</v>
@@ -36367,13 +36367,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>77.30827387397663</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>74.18470725280588</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>77.30827387397663</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>77.30827387397663</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36592,37 +36592,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>147.9141997427696</v>
+        <v>147.9141997427698</v>
       </c>
       <c r="K26" t="n">
-        <v>217.7777808103111</v>
+        <v>217.7777808103113</v>
       </c>
       <c r="L26" t="n">
-        <v>271.5597654485634</v>
+        <v>271.5597654485637</v>
       </c>
       <c r="M26" t="n">
-        <v>194.8275676734294</v>
+        <v>305.9655027781833</v>
       </c>
       <c r="N26" t="n">
-        <v>300.3627879378103</v>
+        <v>300.3627879378106</v>
       </c>
       <c r="O26" t="n">
-        <v>258.8851362810695</v>
+        <v>117.8334811197509</v>
       </c>
       <c r="P26" t="n">
-        <v>209.3381704059462</v>
+        <v>209.3381704059464</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>29.91372005656332</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.592856449144686</v>
+        <v>2.592856449144749</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>70.75432198231083</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.9572649088715</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>32.79705707343916</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>56.37567661045375</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>157.8135313853542</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.655382658706551</v>
       </c>
       <c r="O28" t="n">
-        <v>106.0932374336072</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,37 +36829,37 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>147.9141997427697</v>
       </c>
       <c r="K29" t="n">
-        <v>217.7777808103113</v>
+        <v>217.7777808103112</v>
       </c>
       <c r="L29" t="n">
-        <v>271.5597654485637</v>
+        <v>271.5597654485634</v>
       </c>
       <c r="M29" t="n">
-        <v>305.9655027781833</v>
+        <v>80.88702887266548</v>
       </c>
       <c r="N29" t="n">
-        <v>300.3627879378106</v>
+        <v>300.3627879378104</v>
       </c>
       <c r="O29" t="n">
-        <v>258.8851362810698</v>
+        <v>208.0320878492714</v>
       </c>
       <c r="P29" t="n">
-        <v>209.3381704059464</v>
+        <v>209.3381704059462</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.77626463801438</v>
+        <v>134.8798671759984</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.91372005656324</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.592856449144749</v>
+        <v>2.592856449144743</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36902,10 +36902,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>37.67435569387387</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>70.75432198231066</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>33.0799662884368</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>58.62129293354528</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36975,13 +36975,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>86.15159168707098</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>59.23609556160284</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>9.758828332095298</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>103.2328184824579</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.937201091349209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>147.9141997427697</v>
+        <v>147.9141997427696</v>
       </c>
       <c r="K32" t="n">
-        <v>217.7777808103112</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>271.5597654485636</v>
+        <v>213.4060239215592</v>
       </c>
       <c r="M32" t="n">
-        <v>80.88702887266572</v>
+        <v>305.9655027781831</v>
       </c>
       <c r="N32" t="n">
-        <v>279.4234595625749</v>
+        <v>300.3627879378103</v>
       </c>
       <c r="O32" t="n">
-        <v>258.8851362810698</v>
+        <v>258.8851362810695</v>
       </c>
       <c r="P32" t="n">
-        <v>209.3381704059463</v>
+        <v>209.3381704059462</v>
       </c>
       <c r="Q32" t="n">
-        <v>134.8798671759984</v>
+        <v>134.8798671759983</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>29.91372005656319</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.592856449144664</v>
+        <v>2.592856449144676</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>70.75432198231091</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>70.75432198231083</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37215,13 +37215,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>56.37567661045372</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.1646877189093</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.37096998017415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>162.468914044061</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.55757973452391</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.5542931434855</v>
+        <v>7.554293143484994</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>171.5736030038165</v>
       </c>
       <c r="K35" t="n">
-        <v>119.2100994753519</v>
+        <v>241.437184071358</v>
       </c>
       <c r="L35" t="n">
-        <v>41.43047872321381</v>
+        <v>46.48129154304582</v>
       </c>
       <c r="M35" t="n">
-        <v>80.88702887266572</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="N35" t="n">
-        <v>324.0221911988579</v>
+        <v>79.14557584237761</v>
       </c>
       <c r="O35" t="n">
-        <v>282.5445395421171</v>
+        <v>282.5445395421164</v>
       </c>
       <c r="P35" t="n">
-        <v>232.9975736669937</v>
+        <v>16.9752997822876</v>
       </c>
       <c r="Q35" t="n">
-        <v>158.5392704370458</v>
+        <v>20.95915648942695</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.57312331761005</v>
       </c>
       <c r="S35" t="n">
-        <v>21.11814465524047</v>
+        <v>21.11814465523999</v>
       </c>
       <c r="T35" t="n">
-        <v>26.25225971019201</v>
+        <v>26.25225971019155</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37364,7 +37364,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>18.33150332664698</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.33150332664744</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37458,10 +37458,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>69.88164156976869</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>83.14623001300792</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>13.26458844323831</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.5542931434855</v>
+        <v>7.554293143484994</v>
       </c>
       <c r="J38" t="n">
-        <v>171.5736030038171</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>295.2191687096109</v>
+        <v>268.2982577345838</v>
       </c>
       <c r="M38" t="n">
-        <v>326.9414083242123</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="N38" t="n">
-        <v>40.62138417989209</v>
+        <v>40.62138417989141</v>
       </c>
       <c r="O38" t="n">
-        <v>33.80666237555221</v>
+        <v>212.2332875735253</v>
       </c>
       <c r="P38" t="n">
-        <v>201.9408016461975</v>
+        <v>232.997573666993</v>
       </c>
       <c r="Q38" t="n">
-        <v>158.5392704370458</v>
+        <v>158.5392704370452</v>
       </c>
       <c r="R38" t="n">
-        <v>10.98888323991797</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.11814465524047</v>
+        <v>21.11814465523999</v>
       </c>
       <c r="T38" t="n">
-        <v>26.25225971019201</v>
+        <v>26.25225971019155</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>18.33150332664745</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>18.33150332664698</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.13692157374577</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>83.14623001300791</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.00930843926122</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.554293143484994</v>
       </c>
       <c r="J41" t="n">
-        <v>171.5736030038171</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>241.4371840713586</v>
+        <v>31.39095672524319</v>
       </c>
       <c r="L41" t="n">
-        <v>24.57470168091906</v>
+        <v>105.2039324488593</v>
       </c>
       <c r="M41" t="n">
-        <v>326.9414083242123</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="N41" t="n">
-        <v>30.5858847603437</v>
+        <v>324.0221911988572</v>
       </c>
       <c r="O41" t="n">
-        <v>282.5445395421171</v>
+        <v>282.5445395421164</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>158.5392704370458</v>
+        <v>158.5392704370452</v>
       </c>
       <c r="R41" t="n">
-        <v>10.98888323991797</v>
+        <v>10.98888323991743</v>
       </c>
       <c r="S41" t="n">
-        <v>21.11814465524047</v>
+        <v>21.11814465523999</v>
       </c>
       <c r="T41" t="n">
-        <v>26.25225971019201</v>
+        <v>26.25225971019155</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>18.33150332664698</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>18.33150332664745</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>58.17855232329543</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>69.88164156977007</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>13.26458844323784</v>
       </c>
       <c r="T43" t="n">
-        <v>24.96767768971155</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.5542931434855</v>
+        <v>7.554293143484994</v>
       </c>
       <c r="J44" t="n">
-        <v>61.99899637231324</v>
+        <v>171.5736030038165</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>241.437184071358</v>
       </c>
       <c r="L44" t="n">
-        <v>24.57470168091906</v>
+        <v>151.5692020956513</v>
       </c>
       <c r="M44" t="n">
-        <v>326.9414083242121</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>324.0221911988579</v>
+        <v>40.62138417989141</v>
       </c>
       <c r="O44" t="n">
-        <v>282.5445395421171</v>
+        <v>264.0111091167368</v>
       </c>
       <c r="P44" t="n">
-        <v>165.9762214802153</v>
+        <v>232.997573666993</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>158.5392704370452</v>
       </c>
       <c r="R44" t="n">
-        <v>53.57312331761058</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.11814465524047</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.25225971019201</v>
+        <v>26.25225971019155</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.821854359084738</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>18.33150332664698</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38126,7 +38126,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>11.50964896756271</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.17855232329543</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>37.92924701743714</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38196,13 +38196,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>45.21698299557077</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>24.96767768971155</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
